--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-prompt.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2091,7 +2091,7 @@
     <t>黑名单阈值</t>
   </si>
   <si>
-    <t xml:space="preserve">model.apiLimit.enabledFlag </t>
+    <t>model.apiLimit.enabledFlag</t>
   </si>
   <si>
     <t>Enable</t>
@@ -2109,7 +2109,7 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t xml:space="preserve">model.apiLimit.limitMode </t>
+    <t>model.apiLimit.limitMode</t>
   </si>
   <si>
     <t>List mode</t>
@@ -2223,7 +2223,7 @@
     <t>匹配规则书写格式：/** 、 /test/** 、 /test*/** 以及 /test*</t>
   </si>
   <si>
-    <t xml:space="preserve">model.apiLimit.valueList </t>
+    <t>model.apiLimit.valueList</t>
   </si>
   <si>
     <t>IP list</t>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-prompt.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-03-12</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2091,7 +2091,7 @@
     <t>黑名单阈值</t>
   </si>
   <si>
-    <t>model.apiLimit.enabledFlag</t>
+    <t xml:space="preserve">model.apiLimit.enabledFlag </t>
   </si>
   <si>
     <t>Enable</t>
@@ -2109,7 +2109,7 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>model.apiLimit.limitMode</t>
+    <t xml:space="preserve">model.apiLimit.limitMode </t>
   </si>
   <si>
     <t>List mode</t>
@@ -2223,7 +2223,7 @@
     <t>匹配规则书写格式：/** 、 /test/** 、 /test*/** 以及 /test*</t>
   </si>
   <si>
-    <t>model.apiLimit.valueList</t>
+    <t xml:space="preserve">model.apiLimit.valueList </t>
   </si>
   <si>
     <t>IP list</t>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-prompt.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4057" uniqueCount="802">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2634,6 +2634,15 @@
     <t>服务名称</t>
   </si>
   <si>
+    <t>model.common.serviceRoute</t>
+  </si>
+  <si>
+    <t>service routing</t>
+  </si>
+  <si>
+    <t>服务路由</t>
+  </si>
+  <si>
     <t>model.common.updateDate</t>
   </si>
   <si>
@@ -2670,6 +2679,21 @@
     <t>上传格式：*.png;*.jpeg</t>
   </si>
   <si>
+    <t>title.baseInfo</t>
+  </si>
+  <si>
+    <t>Basic Info</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>title.serviceRoute</t>
+  </si>
+  <si>
+    <t>Service routing</t>
+  </si>
+  <si>
     <t>view.button.setUp</t>
   </si>
   <si>
@@ -2778,9 +2802,6 @@
     <t>view.message.title.info</t>
   </si>
   <si>
-    <t>基本信息</t>
-  </si>
-  <si>
     <t>hadm.hystrix</t>
   </si>
   <si>
@@ -3760,12 +3781,6 @@
   </si>
   <si>
     <t>请求经过路由转发后，是否去掉路径前缀，例如：/hdemo/v1/test经过路由转发后，到后端服务的请求路径将会变成/v1/test</t>
-  </si>
-  <si>
-    <t>Service routing</t>
-  </si>
-  <si>
-    <t>服务路由</t>
   </si>
   <si>
     <t>view.message.title.serviceRoute</t>
@@ -5228,7 +5243,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J667"/>
+  <dimension ref="A1:J673"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8928,7 +8943,7 @@
         <v>66</v>
       </c>
       <c r="J189" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="190">
@@ -8939,16 +8954,16 @@
         <v>61</v>
       </c>
       <c r="G190" t="s">
+        <v>244</v>
+      </c>
+      <c r="H190" t="s">
+        <v>283</v>
+      </c>
+      <c r="I190" t="s">
+        <v>64</v>
+      </c>
+      <c r="J190" t="s">
         <v>284</v>
-      </c>
-      <c r="H190" t="s">
-        <v>285</v>
-      </c>
-      <c r="I190" t="s">
-        <v>64</v>
-      </c>
-      <c r="J190" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="191">
@@ -8959,16 +8974,16 @@
         <v>61</v>
       </c>
       <c r="G191" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="H191" t="s">
+        <v>283</v>
+      </c>
+      <c r="I191" t="s">
+        <v>66</v>
+      </c>
+      <c r="J191" t="s">
         <v>285</v>
-      </c>
-      <c r="I191" t="s">
-        <v>66</v>
-      </c>
-      <c r="J191" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="192">
@@ -8979,16 +8994,16 @@
         <v>61</v>
       </c>
       <c r="G192" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="H192" t="s">
+        <v>286</v>
+      </c>
+      <c r="I192" t="s">
+        <v>64</v>
+      </c>
+      <c r="J192" t="s">
         <v>287</v>
-      </c>
-      <c r="I192" t="s">
-        <v>64</v>
-      </c>
-      <c r="J192" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="193">
@@ -8999,10 +9014,10 @@
         <v>61</v>
       </c>
       <c r="G193" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="H193" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I193" t="s">
         <v>66</v>
@@ -9019,7 +9034,7 @@
         <v>61</v>
       </c>
       <c r="G194" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="H194" t="s">
         <v>289</v>
@@ -9028,7 +9043,7 @@
         <v>64</v>
       </c>
       <c r="J194" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195">
@@ -9039,7 +9054,7 @@
         <v>61</v>
       </c>
       <c r="G195" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="H195" t="s">
         <v>289</v>
@@ -9048,7 +9063,7 @@
         <v>66</v>
       </c>
       <c r="J195" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196">
@@ -9059,16 +9074,16 @@
         <v>61</v>
       </c>
       <c r="G196" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H196" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I196" t="s">
         <v>64</v>
       </c>
       <c r="J196" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="197">
@@ -9079,16 +9094,16 @@
         <v>61</v>
       </c>
       <c r="G197" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H197" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I197" t="s">
         <v>66</v>
       </c>
       <c r="J197" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="198">
@@ -9099,16 +9114,16 @@
         <v>61</v>
       </c>
       <c r="G198" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H198" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I198" t="s">
         <v>64</v>
       </c>
       <c r="J198" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="199">
@@ -9119,16 +9134,16 @@
         <v>61</v>
       </c>
       <c r="G199" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H199" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I199" t="s">
         <v>66</v>
       </c>
       <c r="J199" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200">
@@ -9139,16 +9154,16 @@
         <v>61</v>
       </c>
       <c r="G200" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H200" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I200" t="s">
         <v>64</v>
       </c>
       <c r="J200" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
     </row>
     <row r="201">
@@ -9159,16 +9174,16 @@
         <v>61</v>
       </c>
       <c r="G201" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H201" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I201" t="s">
         <v>66</v>
       </c>
       <c r="J201" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
     </row>
     <row r="202">
@@ -9179,16 +9194,16 @@
         <v>61</v>
       </c>
       <c r="G202" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H202" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I202" t="s">
         <v>64</v>
       </c>
       <c r="J202" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203">
@@ -9199,16 +9214,16 @@
         <v>61</v>
       </c>
       <c r="G203" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H203" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I203" t="s">
         <v>66</v>
       </c>
       <c r="J203" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204">
@@ -9219,16 +9234,16 @@
         <v>61</v>
       </c>
       <c r="G204" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H204" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I204" t="s">
         <v>64</v>
       </c>
       <c r="J204" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205">
@@ -9239,16 +9254,16 @@
         <v>61</v>
       </c>
       <c r="G205" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H205" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I205" t="s">
         <v>66</v>
       </c>
       <c r="J205" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206">
@@ -9259,16 +9274,16 @@
         <v>61</v>
       </c>
       <c r="G206" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H206" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I206" t="s">
         <v>64</v>
       </c>
       <c r="J206" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="207">
@@ -9279,16 +9294,16 @@
         <v>61</v>
       </c>
       <c r="G207" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H207" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I207" t="s">
         <v>66</v>
       </c>
       <c r="J207" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="208">
@@ -9299,16 +9314,16 @@
         <v>61</v>
       </c>
       <c r="G208" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H208" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I208" t="s">
         <v>64</v>
       </c>
       <c r="J208" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="209">
@@ -9319,16 +9334,16 @@
         <v>61</v>
       </c>
       <c r="G209" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H209" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I209" t="s">
         <v>66</v>
       </c>
       <c r="J209" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="210">
@@ -9339,16 +9354,16 @@
         <v>61</v>
       </c>
       <c r="G210" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H210" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I210" t="s">
         <v>64</v>
       </c>
       <c r="J210" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
     </row>
     <row r="211">
@@ -9359,16 +9374,16 @@
         <v>61</v>
       </c>
       <c r="G211" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H211" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I211" t="s">
         <v>66</v>
       </c>
       <c r="J211" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212">
@@ -9379,16 +9394,16 @@
         <v>61</v>
       </c>
       <c r="G212" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H212" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I212" t="s">
         <v>64</v>
       </c>
       <c r="J212" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213">
@@ -9399,16 +9414,16 @@
         <v>61</v>
       </c>
       <c r="G213" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H213" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I213" t="s">
         <v>66</v>
       </c>
       <c r="J213" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214">
@@ -9419,16 +9434,16 @@
         <v>61</v>
       </c>
       <c r="G214" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H214" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I214" t="s">
         <v>64</v>
       </c>
       <c r="J214" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="215">
@@ -9439,16 +9454,16 @@
         <v>61</v>
       </c>
       <c r="G215" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H215" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I215" t="s">
         <v>66</v>
       </c>
       <c r="J215" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216">
@@ -9459,16 +9474,16 @@
         <v>61</v>
       </c>
       <c r="G216" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H216" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I216" t="s">
         <v>64</v>
       </c>
       <c r="J216" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217">
@@ -9479,16 +9494,16 @@
         <v>61</v>
       </c>
       <c r="G217" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H217" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I217" t="s">
         <v>66</v>
       </c>
       <c r="J217" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218">
@@ -9499,16 +9514,16 @@
         <v>61</v>
       </c>
       <c r="G218" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H218" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I218" t="s">
         <v>64</v>
       </c>
       <c r="J218" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219">
@@ -9519,16 +9534,16 @@
         <v>61</v>
       </c>
       <c r="G219" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H219" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I219" t="s">
         <v>66</v>
       </c>
       <c r="J219" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220">
@@ -9539,16 +9554,16 @@
         <v>61</v>
       </c>
       <c r="G220" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H220" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I220" t="s">
         <v>64</v>
       </c>
       <c r="J220" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221">
@@ -9559,16 +9574,16 @@
         <v>61</v>
       </c>
       <c r="G221" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H221" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I221" t="s">
         <v>66</v>
       </c>
       <c r="J221" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222">
@@ -9579,16 +9594,16 @@
         <v>61</v>
       </c>
       <c r="G222" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H222" t="s">
+        <v>317</v>
+      </c>
+      <c r="I222" t="s">
+        <v>64</v>
+      </c>
+      <c r="J222" t="s">
         <v>316</v>
-      </c>
-      <c r="I222" t="s">
-        <v>64</v>
-      </c>
-      <c r="J222" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="223">
@@ -9599,16 +9614,16 @@
         <v>61</v>
       </c>
       <c r="G223" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H223" t="s">
+        <v>317</v>
+      </c>
+      <c r="I223" t="s">
+        <v>66</v>
+      </c>
+      <c r="J223" t="s">
         <v>316</v>
-      </c>
-      <c r="I223" t="s">
-        <v>66</v>
-      </c>
-      <c r="J223" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="224">
@@ -9619,16 +9634,16 @@
         <v>61</v>
       </c>
       <c r="G224" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H224" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I224" t="s">
         <v>64</v>
       </c>
       <c r="J224" t="s">
-        <v>140</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225">
@@ -9639,16 +9654,16 @@
         <v>61</v>
       </c>
       <c r="G225" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H225" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I225" t="s">
         <v>66</v>
       </c>
       <c r="J225" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
     </row>
     <row r="226">
@@ -9659,7 +9674,7 @@
         <v>61</v>
       </c>
       <c r="G226" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H226" t="s">
         <v>320</v>
@@ -9679,7 +9694,7 @@
         <v>61</v>
       </c>
       <c r="G227" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H227" t="s">
         <v>320</v>
@@ -9699,7 +9714,7 @@
         <v>61</v>
       </c>
       <c r="G228" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H228" t="s">
         <v>323</v>
@@ -9719,7 +9734,7 @@
         <v>61</v>
       </c>
       <c r="G229" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H229" t="s">
         <v>323</v>
@@ -9739,7 +9754,7 @@
         <v>61</v>
       </c>
       <c r="G230" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H230" t="s">
         <v>326</v>
@@ -9748,7 +9763,7 @@
         <v>64</v>
       </c>
       <c r="J230" t="s">
-        <v>327</v>
+        <v>140</v>
       </c>
     </row>
     <row r="231">
@@ -9759,7 +9774,7 @@
         <v>61</v>
       </c>
       <c r="G231" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H231" t="s">
         <v>326</v>
@@ -9768,7 +9783,7 @@
         <v>66</v>
       </c>
       <c r="J231" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
     </row>
     <row r="232">
@@ -9779,16 +9794,16 @@
         <v>61</v>
       </c>
       <c r="G232" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H232" t="s">
+        <v>327</v>
+      </c>
+      <c r="I232" t="s">
+        <v>64</v>
+      </c>
+      <c r="J232" t="s">
         <v>328</v>
-      </c>
-      <c r="I232" t="s">
-        <v>64</v>
-      </c>
-      <c r="J232" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="233">
@@ -9799,16 +9814,16 @@
         <v>61</v>
       </c>
       <c r="G233" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H233" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I233" t="s">
         <v>66</v>
       </c>
       <c r="J233" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="234">
@@ -9819,16 +9834,16 @@
         <v>61</v>
       </c>
       <c r="G234" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H234" t="s">
+        <v>330</v>
+      </c>
+      <c r="I234" t="s">
+        <v>64</v>
+      </c>
+      <c r="J234" t="s">
         <v>331</v>
-      </c>
-      <c r="I234" t="s">
-        <v>64</v>
-      </c>
-      <c r="J234" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="235">
@@ -9839,16 +9854,16 @@
         <v>61</v>
       </c>
       <c r="G235" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H235" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I235" t="s">
         <v>66</v>
       </c>
       <c r="J235" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="236">
@@ -9859,16 +9874,16 @@
         <v>61</v>
       </c>
       <c r="G236" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H236" t="s">
+        <v>333</v>
+      </c>
+      <c r="I236" t="s">
+        <v>64</v>
+      </c>
+      <c r="J236" t="s">
         <v>334</v>
-      </c>
-      <c r="I236" t="s">
-        <v>64</v>
-      </c>
-      <c r="J236" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="237">
@@ -9879,16 +9894,16 @@
         <v>61</v>
       </c>
       <c r="G237" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H237" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I237" t="s">
         <v>66</v>
       </c>
       <c r="J237" t="s">
-        <v>336</v>
+        <v>213</v>
       </c>
     </row>
     <row r="238">
@@ -9899,16 +9914,16 @@
         <v>61</v>
       </c>
       <c r="G238" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H238" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I238" t="s">
         <v>64</v>
       </c>
       <c r="J238" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="239">
@@ -9919,16 +9934,16 @@
         <v>61</v>
       </c>
       <c r="G239" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H239" t="s">
+        <v>335</v>
+      </c>
+      <c r="I239" t="s">
+        <v>66</v>
+      </c>
+      <c r="J239" t="s">
         <v>337</v>
-      </c>
-      <c r="I239" t="s">
-        <v>66</v>
-      </c>
-      <c r="J239" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="240">
@@ -9939,16 +9954,16 @@
         <v>61</v>
       </c>
       <c r="G240" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H240" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I240" t="s">
         <v>64</v>
       </c>
       <c r="J240" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="241">
@@ -9959,16 +9974,16 @@
         <v>61</v>
       </c>
       <c r="G241" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H241" t="s">
+        <v>338</v>
+      </c>
+      <c r="I241" t="s">
+        <v>66</v>
+      </c>
+      <c r="J241" t="s">
         <v>340</v>
-      </c>
-      <c r="I241" t="s">
-        <v>66</v>
-      </c>
-      <c r="J241" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="242">
@@ -9979,16 +9994,16 @@
         <v>61</v>
       </c>
       <c r="G242" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H242" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I242" t="s">
         <v>64</v>
       </c>
       <c r="J242" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="243">
@@ -9999,16 +10014,16 @@
         <v>61</v>
       </c>
       <c r="G243" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H243" t="s">
+        <v>341</v>
+      </c>
+      <c r="I243" t="s">
+        <v>66</v>
+      </c>
+      <c r="J243" t="s">
         <v>343</v>
-      </c>
-      <c r="I243" t="s">
-        <v>66</v>
-      </c>
-      <c r="J243" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="244">
@@ -10019,16 +10034,16 @@
         <v>61</v>
       </c>
       <c r="G244" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H244" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I244" t="s">
         <v>64</v>
       </c>
       <c r="J244" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="245">
@@ -10039,16 +10054,16 @@
         <v>61</v>
       </c>
       <c r="G245" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H245" t="s">
+        <v>344</v>
+      </c>
+      <c r="I245" t="s">
+        <v>66</v>
+      </c>
+      <c r="J245" t="s">
         <v>346</v>
-      </c>
-      <c r="I245" t="s">
-        <v>66</v>
-      </c>
-      <c r="J245" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="246">
@@ -10059,16 +10074,16 @@
         <v>61</v>
       </c>
       <c r="G246" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H246" t="s">
+        <v>347</v>
+      </c>
+      <c r="I246" t="s">
+        <v>64</v>
+      </c>
+      <c r="J246" t="s">
         <v>348</v>
-      </c>
-      <c r="I246" t="s">
-        <v>64</v>
-      </c>
-      <c r="J246" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="247">
@@ -10079,16 +10094,16 @@
         <v>61</v>
       </c>
       <c r="G247" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H247" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I247" t="s">
         <v>66</v>
       </c>
       <c r="J247" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="248">
@@ -10099,16 +10114,16 @@
         <v>61</v>
       </c>
       <c r="G248" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H248" t="s">
+        <v>350</v>
+      </c>
+      <c r="I248" t="s">
+        <v>64</v>
+      </c>
+      <c r="J248" t="s">
         <v>351</v>
-      </c>
-      <c r="I248" t="s">
-        <v>64</v>
-      </c>
-      <c r="J248" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="249">
@@ -10119,16 +10134,16 @@
         <v>61</v>
       </c>
       <c r="G249" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H249" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I249" t="s">
         <v>66</v>
       </c>
       <c r="J249" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="250">
@@ -10139,16 +10154,16 @@
         <v>61</v>
       </c>
       <c r="G250" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H250" t="s">
+        <v>353</v>
+      </c>
+      <c r="I250" t="s">
+        <v>64</v>
+      </c>
+      <c r="J250" t="s">
         <v>354</v>
-      </c>
-      <c r="I250" t="s">
-        <v>64</v>
-      </c>
-      <c r="J250" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="251">
@@ -10159,16 +10174,16 @@
         <v>61</v>
       </c>
       <c r="G251" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H251" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I251" t="s">
         <v>66</v>
       </c>
       <c r="J251" t="s">
-        <v>356</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252">
@@ -10179,16 +10194,16 @@
         <v>61</v>
       </c>
       <c r="G252" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H252" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I252" t="s">
         <v>64</v>
       </c>
       <c r="J252" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="253">
@@ -10199,16 +10214,16 @@
         <v>61</v>
       </c>
       <c r="G253" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H253" t="s">
+        <v>355</v>
+      </c>
+      <c r="I253" t="s">
+        <v>66</v>
+      </c>
+      <c r="J253" t="s">
         <v>357</v>
-      </c>
-      <c r="I253" t="s">
-        <v>66</v>
-      </c>
-      <c r="J253" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="254">
@@ -10219,16 +10234,16 @@
         <v>61</v>
       </c>
       <c r="G254" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H254" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I254" t="s">
         <v>64</v>
       </c>
       <c r="J254" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="255">
@@ -10239,16 +10254,16 @@
         <v>61</v>
       </c>
       <c r="G255" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H255" t="s">
+        <v>358</v>
+      </c>
+      <c r="I255" t="s">
+        <v>66</v>
+      </c>
+      <c r="J255" t="s">
         <v>360</v>
-      </c>
-      <c r="I255" t="s">
-        <v>66</v>
-      </c>
-      <c r="J255" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="256">
@@ -10259,16 +10274,16 @@
         <v>61</v>
       </c>
       <c r="G256" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H256" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I256" t="s">
         <v>64</v>
       </c>
       <c r="J256" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="257">
@@ -10279,16 +10294,16 @@
         <v>61</v>
       </c>
       <c r="G257" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H257" t="s">
+        <v>361</v>
+      </c>
+      <c r="I257" t="s">
+        <v>66</v>
+      </c>
+      <c r="J257" t="s">
         <v>363</v>
-      </c>
-      <c r="I257" t="s">
-        <v>66</v>
-      </c>
-      <c r="J257" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="258">
@@ -10299,16 +10314,16 @@
         <v>61</v>
       </c>
       <c r="G258" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H258" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I258" t="s">
         <v>64</v>
       </c>
       <c r="J258" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="259">
@@ -10319,16 +10334,16 @@
         <v>61</v>
       </c>
       <c r="G259" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H259" t="s">
+        <v>364</v>
+      </c>
+      <c r="I259" t="s">
+        <v>66</v>
+      </c>
+      <c r="J259" t="s">
         <v>366</v>
-      </c>
-      <c r="I259" t="s">
-        <v>66</v>
-      </c>
-      <c r="J259" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="260">
@@ -10339,16 +10354,16 @@
         <v>61</v>
       </c>
       <c r="G260" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H260" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I260" t="s">
         <v>64</v>
       </c>
       <c r="J260" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261">
@@ -10359,16 +10374,16 @@
         <v>61</v>
       </c>
       <c r="G261" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H261" t="s">
+        <v>367</v>
+      </c>
+      <c r="I261" t="s">
+        <v>66</v>
+      </c>
+      <c r="J261" t="s">
         <v>369</v>
-      </c>
-      <c r="I261" t="s">
-        <v>66</v>
-      </c>
-      <c r="J261" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="262">
@@ -10379,16 +10394,16 @@
         <v>61</v>
       </c>
       <c r="G262" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H262" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I262" t="s">
         <v>64</v>
       </c>
       <c r="J262" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="263">
@@ -10399,16 +10414,16 @@
         <v>61</v>
       </c>
       <c r="G263" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H263" t="s">
+        <v>370</v>
+      </c>
+      <c r="I263" t="s">
+        <v>66</v>
+      </c>
+      <c r="J263" t="s">
         <v>372</v>
-      </c>
-      <c r="I263" t="s">
-        <v>66</v>
-      </c>
-      <c r="J263" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="264">
@@ -10419,16 +10434,16 @@
         <v>61</v>
       </c>
       <c r="G264" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H264" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I264" t="s">
         <v>64</v>
       </c>
       <c r="J264" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="265">
@@ -10439,16 +10454,16 @@
         <v>61</v>
       </c>
       <c r="G265" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H265" t="s">
+        <v>373</v>
+      </c>
+      <c r="I265" t="s">
+        <v>66</v>
+      </c>
+      <c r="J265" t="s">
         <v>375</v>
-      </c>
-      <c r="I265" t="s">
-        <v>66</v>
-      </c>
-      <c r="J265" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="266">
@@ -10459,7 +10474,7 @@
         <v>61</v>
       </c>
       <c r="G266" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H266" t="s">
         <v>376</v>
@@ -10479,7 +10494,7 @@
         <v>61</v>
       </c>
       <c r="G267" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H267" t="s">
         <v>376</v>
@@ -10499,16 +10514,16 @@
         <v>61</v>
       </c>
       <c r="G268" t="s">
+        <v>319</v>
+      </c>
+      <c r="H268" t="s">
         <v>379</v>
       </c>
-      <c r="H268" t="s">
+      <c r="I268" t="s">
+        <v>64</v>
+      </c>
+      <c r="J268" t="s">
         <v>380</v>
-      </c>
-      <c r="I268" t="s">
-        <v>64</v>
-      </c>
-      <c r="J268" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="269">
@@ -10519,16 +10534,16 @@
         <v>61</v>
       </c>
       <c r="G269" t="s">
+        <v>319</v>
+      </c>
+      <c r="H269" t="s">
         <v>379</v>
       </c>
-      <c r="H269" t="s">
-        <v>380</v>
-      </c>
       <c r="I269" t="s">
         <v>66</v>
       </c>
       <c r="J269" t="s">
-        <v>198</v>
+        <v>381</v>
       </c>
     </row>
     <row r="270">
@@ -10539,16 +10554,16 @@
         <v>61</v>
       </c>
       <c r="G270" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="H270" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I270" t="s">
         <v>64</v>
       </c>
       <c r="J270" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="271">
@@ -10559,16 +10574,16 @@
         <v>61</v>
       </c>
       <c r="G271" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="H271" t="s">
+        <v>382</v>
+      </c>
+      <c r="I271" t="s">
+        <v>66</v>
+      </c>
+      <c r="J271" t="s">
         <v>381</v>
-      </c>
-      <c r="I271" t="s">
-        <v>66</v>
-      </c>
-      <c r="J271" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="272">
@@ -10579,7 +10594,7 @@
         <v>61</v>
       </c>
       <c r="G272" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="H272" t="s">
         <v>383</v>
@@ -10599,7 +10614,7 @@
         <v>61</v>
       </c>
       <c r="G273" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="H273" t="s">
         <v>383</v>
@@ -10608,7 +10623,7 @@
         <v>66</v>
       </c>
       <c r="J273" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="274">
@@ -10619,16 +10634,16 @@
         <v>61</v>
       </c>
       <c r="G274" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H274" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I274" t="s">
         <v>64</v>
       </c>
       <c r="J274" t="s">
-        <v>386</v>
+        <v>198</v>
       </c>
     </row>
     <row r="275">
@@ -10639,16 +10654,16 @@
         <v>61</v>
       </c>
       <c r="G275" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H275" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I275" t="s">
         <v>66</v>
       </c>
       <c r="J275" t="s">
-        <v>386</v>
+        <v>198</v>
       </c>
     </row>
     <row r="276">
@@ -10659,16 +10674,16 @@
         <v>61</v>
       </c>
       <c r="G276" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H276" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I276" t="s">
         <v>64</v>
       </c>
       <c r="J276" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="277">
@@ -10679,16 +10694,16 @@
         <v>61</v>
       </c>
       <c r="G277" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H277" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I277" t="s">
         <v>66</v>
       </c>
       <c r="J277" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278">
@@ -10699,16 +10714,16 @@
         <v>61</v>
       </c>
       <c r="G278" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H278" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I278" t="s">
         <v>64</v>
       </c>
       <c r="J278" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="279">
@@ -10719,16 +10734,16 @@
         <v>61</v>
       </c>
       <c r="G279" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H279" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I279" t="s">
         <v>66</v>
       </c>
       <c r="J279" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="280">
@@ -10739,16 +10754,16 @@
         <v>61</v>
       </c>
       <c r="G280" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H280" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I280" t="s">
         <v>64</v>
       </c>
       <c r="J280" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="281">
@@ -10759,16 +10774,16 @@
         <v>61</v>
       </c>
       <c r="G281" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H281" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I281" t="s">
         <v>66</v>
       </c>
       <c r="J281" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="282">
@@ -10779,16 +10794,16 @@
         <v>61</v>
       </c>
       <c r="G282" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H282" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I282" t="s">
         <v>64</v>
       </c>
       <c r="J282" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="283">
@@ -10799,16 +10814,16 @@
         <v>61</v>
       </c>
       <c r="G283" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H283" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I283" t="s">
         <v>66</v>
       </c>
       <c r="J283" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="284">
@@ -10819,16 +10834,16 @@
         <v>61</v>
       </c>
       <c r="G284" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H284" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I284" t="s">
         <v>64</v>
       </c>
       <c r="J284" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="285">
@@ -10839,16 +10854,16 @@
         <v>61</v>
       </c>
       <c r="G285" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H285" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I285" t="s">
         <v>66</v>
       </c>
       <c r="J285" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="286">
@@ -10859,16 +10874,16 @@
         <v>61</v>
       </c>
       <c r="G286" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H286" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I286" t="s">
         <v>64</v>
       </c>
       <c r="J286" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="287">
@@ -10879,16 +10894,16 @@
         <v>61</v>
       </c>
       <c r="G287" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H287" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I287" t="s">
         <v>66</v>
       </c>
       <c r="J287" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="288">
@@ -10899,16 +10914,16 @@
         <v>61</v>
       </c>
       <c r="G288" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H288" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I288" t="s">
         <v>64</v>
       </c>
       <c r="J288" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="289">
@@ -10919,16 +10934,16 @@
         <v>61</v>
       </c>
       <c r="G289" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H289" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I289" t="s">
         <v>66</v>
       </c>
       <c r="J289" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="290">
@@ -10939,16 +10954,16 @@
         <v>61</v>
       </c>
       <c r="G290" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H290" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I290" t="s">
         <v>64</v>
       </c>
       <c r="J290" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="291">
@@ -10959,16 +10974,16 @@
         <v>61</v>
       </c>
       <c r="G291" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H291" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I291" t="s">
         <v>66</v>
       </c>
       <c r="J291" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="292">
@@ -10979,16 +10994,16 @@
         <v>61</v>
       </c>
       <c r="G292" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H292" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I292" t="s">
         <v>64</v>
       </c>
       <c r="J292" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="293">
@@ -10999,16 +11014,16 @@
         <v>61</v>
       </c>
       <c r="G293" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H293" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I293" t="s">
         <v>66</v>
       </c>
       <c r="J293" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294">
@@ -11019,16 +11034,16 @@
         <v>61</v>
       </c>
       <c r="G294" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H294" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I294" t="s">
         <v>64</v>
       </c>
       <c r="J294" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="295">
@@ -11039,16 +11054,16 @@
         <v>61</v>
       </c>
       <c r="G295" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H295" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I295" t="s">
         <v>66</v>
       </c>
       <c r="J295" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="296">
@@ -11059,16 +11074,16 @@
         <v>61</v>
       </c>
       <c r="G296" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H296" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I296" t="s">
         <v>64</v>
       </c>
       <c r="J296" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
     </row>
     <row r="297">
@@ -11079,16 +11094,16 @@
         <v>61</v>
       </c>
       <c r="G297" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H297" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I297" t="s">
         <v>66</v>
       </c>
       <c r="J297" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
     </row>
     <row r="298">
@@ -11099,16 +11114,16 @@
         <v>61</v>
       </c>
       <c r="G298" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H298" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I298" t="s">
         <v>64</v>
       </c>
       <c r="J298" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="299">
@@ -11119,16 +11134,16 @@
         <v>61</v>
       </c>
       <c r="G299" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H299" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I299" t="s">
         <v>66</v>
       </c>
       <c r="J299" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="300">
@@ -11139,16 +11154,16 @@
         <v>61</v>
       </c>
       <c r="G300" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H300" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I300" t="s">
         <v>64</v>
       </c>
       <c r="J300" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="301">
@@ -11159,16 +11174,16 @@
         <v>61</v>
       </c>
       <c r="G301" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H301" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I301" t="s">
         <v>66</v>
       </c>
       <c r="J301" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="302">
@@ -11179,16 +11194,16 @@
         <v>61</v>
       </c>
       <c r="G302" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H302" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I302" t="s">
         <v>64</v>
       </c>
       <c r="J302" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="303">
@@ -11199,16 +11214,16 @@
         <v>61</v>
       </c>
       <c r="G303" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H303" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I303" t="s">
         <v>66</v>
       </c>
       <c r="J303" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="304">
@@ -11219,16 +11234,16 @@
         <v>61</v>
       </c>
       <c r="G304" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H304" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I304" t="s">
         <v>64</v>
       </c>
       <c r="J304" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="305">
@@ -11239,16 +11254,16 @@
         <v>61</v>
       </c>
       <c r="G305" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H305" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I305" t="s">
         <v>66</v>
       </c>
       <c r="J305" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="306">
@@ -11259,16 +11274,16 @@
         <v>61</v>
       </c>
       <c r="G306" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H306" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I306" t="s">
         <v>64</v>
       </c>
       <c r="J306" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="307">
@@ -11279,16 +11294,16 @@
         <v>61</v>
       </c>
       <c r="G307" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H307" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I307" t="s">
         <v>66</v>
       </c>
       <c r="J307" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="308">
@@ -11299,16 +11314,16 @@
         <v>61</v>
       </c>
       <c r="G308" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H308" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I308" t="s">
         <v>64</v>
       </c>
       <c r="J308" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="309">
@@ -11319,16 +11334,16 @@
         <v>61</v>
       </c>
       <c r="G309" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H309" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I309" t="s">
         <v>66</v>
       </c>
       <c r="J309" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="310">
@@ -11339,7 +11354,7 @@
         <v>61</v>
       </c>
       <c r="G310" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="H310" t="s">
         <v>420</v>
@@ -11359,7 +11374,7 @@
         <v>61</v>
       </c>
       <c r="G311" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="H311" t="s">
         <v>420</v>
@@ -11379,7 +11394,7 @@
         <v>61</v>
       </c>
       <c r="G312" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="H312" t="s">
         <v>422</v>
@@ -11399,7 +11414,7 @@
         <v>61</v>
       </c>
       <c r="G313" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="H313" t="s">
         <v>422</v>
@@ -11419,7 +11434,7 @@
         <v>61</v>
       </c>
       <c r="G314" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="H314" t="s">
         <v>424</v>
@@ -11439,7 +11454,7 @@
         <v>61</v>
       </c>
       <c r="G315" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="H315" t="s">
         <v>424</v>
@@ -11459,16 +11474,16 @@
         <v>61</v>
       </c>
       <c r="G316" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H316" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I316" t="s">
         <v>64</v>
       </c>
       <c r="J316" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="317">
@@ -11479,16 +11494,16 @@
         <v>61</v>
       </c>
       <c r="G317" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H317" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I317" t="s">
         <v>66</v>
       </c>
       <c r="J317" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="318">
@@ -11499,16 +11514,16 @@
         <v>61</v>
       </c>
       <c r="G318" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H318" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I318" t="s">
         <v>64</v>
       </c>
       <c r="J318" t="s">
-        <v>80</v>
+        <v>430</v>
       </c>
     </row>
     <row r="319">
@@ -11519,16 +11534,16 @@
         <v>61</v>
       </c>
       <c r="G319" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H319" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I319" t="s">
         <v>66</v>
       </c>
       <c r="J319" t="s">
-        <v>80</v>
+        <v>430</v>
       </c>
     </row>
     <row r="320">
@@ -11539,16 +11554,16 @@
         <v>61</v>
       </c>
       <c r="G320" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H320" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I320" t="s">
         <v>64</v>
       </c>
       <c r="J320" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="321">
@@ -11559,16 +11574,16 @@
         <v>61</v>
       </c>
       <c r="G321" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H321" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I321" t="s">
         <v>66</v>
       </c>
       <c r="J321" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="322">
@@ -11579,16 +11594,16 @@
         <v>61</v>
       </c>
       <c r="G322" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H322" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I322" t="s">
         <v>64</v>
       </c>
       <c r="J322" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="323">
@@ -11599,16 +11614,16 @@
         <v>61</v>
       </c>
       <c r="G323" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H323" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I323" t="s">
         <v>66</v>
       </c>
       <c r="J323" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="324">
@@ -11619,16 +11634,16 @@
         <v>61</v>
       </c>
       <c r="G324" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H324" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I324" t="s">
         <v>64</v>
       </c>
       <c r="J324" t="s">
-        <v>434</v>
+        <v>80</v>
       </c>
     </row>
     <row r="325">
@@ -11639,16 +11654,16 @@
         <v>61</v>
       </c>
       <c r="G325" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H325" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I325" t="s">
         <v>66</v>
       </c>
       <c r="J325" t="s">
-        <v>434</v>
+        <v>80</v>
       </c>
     </row>
     <row r="326">
@@ -11659,16 +11674,16 @@
         <v>61</v>
       </c>
       <c r="G326" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H326" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I326" t="s">
         <v>64</v>
       </c>
       <c r="J326" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="327">
@@ -11679,16 +11694,16 @@
         <v>61</v>
       </c>
       <c r="G327" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H327" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I327" t="s">
         <v>66</v>
       </c>
       <c r="J327" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="328">
@@ -11699,16 +11714,16 @@
         <v>61</v>
       </c>
       <c r="G328" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H328" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I328" t="s">
         <v>64</v>
       </c>
       <c r="J328" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="329">
@@ -11719,16 +11734,16 @@
         <v>61</v>
       </c>
       <c r="G329" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H329" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I329" t="s">
         <v>66</v>
       </c>
       <c r="J329" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="330">
@@ -11739,16 +11754,16 @@
         <v>61</v>
       </c>
       <c r="G330" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H330" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I330" t="s">
         <v>64</v>
       </c>
       <c r="J330" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="331">
@@ -11759,16 +11774,16 @@
         <v>61</v>
       </c>
       <c r="G331" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H331" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I331" t="s">
         <v>66</v>
       </c>
       <c r="J331" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="332">
@@ -11779,16 +11794,16 @@
         <v>61</v>
       </c>
       <c r="G332" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H332" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I332" t="s">
         <v>64</v>
       </c>
       <c r="J332" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="333">
@@ -11799,16 +11814,16 @@
         <v>61</v>
       </c>
       <c r="G333" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H333" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I333" t="s">
         <v>66</v>
       </c>
       <c r="J333" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="334">
@@ -11819,16 +11834,16 @@
         <v>61</v>
       </c>
       <c r="G334" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H334" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I334" t="s">
         <v>64</v>
       </c>
       <c r="J334" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="335">
@@ -11839,16 +11854,16 @@
         <v>61</v>
       </c>
       <c r="G335" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H335" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I335" t="s">
         <v>66</v>
       </c>
       <c r="J335" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="336">
@@ -11859,16 +11874,16 @@
         <v>61</v>
       </c>
       <c r="G336" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H336" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I336" t="s">
         <v>64</v>
       </c>
       <c r="J336" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="337">
@@ -11879,16 +11894,16 @@
         <v>61</v>
       </c>
       <c r="G337" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H337" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I337" t="s">
         <v>66</v>
       </c>
       <c r="J337" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="338">
@@ -11899,16 +11914,16 @@
         <v>61</v>
       </c>
       <c r="G338" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H338" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I338" t="s">
         <v>64</v>
       </c>
       <c r="J338" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="339">
@@ -11919,16 +11934,16 @@
         <v>61</v>
       </c>
       <c r="G339" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H339" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I339" t="s">
         <v>66</v>
       </c>
       <c r="J339" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="340">
@@ -11939,16 +11954,16 @@
         <v>61</v>
       </c>
       <c r="G340" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H340" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I340" t="s">
         <v>64</v>
       </c>
       <c r="J340" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="341">
@@ -11959,16 +11974,16 @@
         <v>61</v>
       </c>
       <c r="G341" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H341" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I341" t="s">
         <v>66</v>
       </c>
       <c r="J341" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="342">
@@ -11979,16 +11994,16 @@
         <v>61</v>
       </c>
       <c r="G342" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H342" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I342" t="s">
         <v>64</v>
       </c>
       <c r="J342" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="343">
@@ -11999,16 +12014,16 @@
         <v>61</v>
       </c>
       <c r="G343" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H343" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I343" t="s">
         <v>66</v>
       </c>
       <c r="J343" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="344">
@@ -12019,16 +12034,16 @@
         <v>61</v>
       </c>
       <c r="G344" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H344" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I344" t="s">
         <v>64</v>
       </c>
       <c r="J344" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="345">
@@ -12039,16 +12054,16 @@
         <v>61</v>
       </c>
       <c r="G345" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H345" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I345" t="s">
         <v>66</v>
       </c>
       <c r="J345" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="346">
@@ -12059,16 +12074,16 @@
         <v>61</v>
       </c>
       <c r="G346" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H346" t="s">
-        <v>310</v>
+        <v>456</v>
       </c>
       <c r="I346" t="s">
         <v>64</v>
       </c>
       <c r="J346" t="s">
-        <v>311</v>
+        <v>455</v>
       </c>
     </row>
     <row r="347">
@@ -12079,16 +12094,16 @@
         <v>61</v>
       </c>
       <c r="G347" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H347" t="s">
-        <v>310</v>
+        <v>456</v>
       </c>
       <c r="I347" t="s">
         <v>66</v>
       </c>
       <c r="J347" t="s">
-        <v>311</v>
+        <v>455</v>
       </c>
     </row>
     <row r="348">
@@ -12099,16 +12114,16 @@
         <v>61</v>
       </c>
       <c r="G348" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H348" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I348" t="s">
         <v>64</v>
       </c>
       <c r="J348" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="349">
@@ -12119,16 +12134,16 @@
         <v>61</v>
       </c>
       <c r="G349" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H349" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I349" t="s">
         <v>66</v>
       </c>
       <c r="J349" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="350">
@@ -12139,16 +12154,16 @@
         <v>61</v>
       </c>
       <c r="G350" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H350" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I350" t="s">
         <v>64</v>
       </c>
       <c r="J350" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="351">
@@ -12159,16 +12174,16 @@
         <v>61</v>
       </c>
       <c r="G351" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H351" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I351" t="s">
         <v>66</v>
       </c>
       <c r="J351" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="352">
@@ -12179,16 +12194,16 @@
         <v>61</v>
       </c>
       <c r="G352" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H352" t="s">
-        <v>458</v>
+        <v>318</v>
       </c>
       <c r="I352" t="s">
         <v>64</v>
       </c>
       <c r="J352" t="s">
-        <v>459</v>
+        <v>280</v>
       </c>
     </row>
     <row r="353">
@@ -12199,16 +12214,16 @@
         <v>61</v>
       </c>
       <c r="G353" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H353" t="s">
-        <v>458</v>
+        <v>318</v>
       </c>
       <c r="I353" t="s">
         <v>66</v>
       </c>
       <c r="J353" t="s">
-        <v>459</v>
+        <v>280</v>
       </c>
     </row>
     <row r="354">
@@ -12219,16 +12234,16 @@
         <v>61</v>
       </c>
       <c r="G354" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H354" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I354" t="s">
         <v>64</v>
       </c>
       <c r="J354" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
     </row>
     <row r="355">
@@ -12239,16 +12254,16 @@
         <v>61</v>
       </c>
       <c r="G355" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H355" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I355" t="s">
         <v>66</v>
       </c>
       <c r="J355" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
     </row>
     <row r="356">
@@ -12259,16 +12274,16 @@
         <v>61</v>
       </c>
       <c r="G356" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H356" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I356" t="s">
         <v>64</v>
       </c>
       <c r="J356" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
     </row>
     <row r="357">
@@ -12279,16 +12294,16 @@
         <v>61</v>
       </c>
       <c r="G357" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H357" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I357" t="s">
         <v>66</v>
       </c>
       <c r="J357" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
     </row>
     <row r="358">
@@ -12299,16 +12314,16 @@
         <v>61</v>
       </c>
       <c r="G358" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H358" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I358" t="s">
         <v>64</v>
       </c>
       <c r="J358" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="359">
@@ -12319,16 +12334,16 @@
         <v>61</v>
       </c>
       <c r="G359" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H359" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I359" t="s">
         <v>66</v>
       </c>
       <c r="J359" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="360">
@@ -12339,16 +12354,16 @@
         <v>61</v>
       </c>
       <c r="G360" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="H360" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I360" t="s">
         <v>64</v>
       </c>
       <c r="J360" t="s">
-        <v>466</v>
+        <v>363</v>
       </c>
     </row>
     <row r="361">
@@ -12359,16 +12374,16 @@
         <v>61</v>
       </c>
       <c r="G361" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="H361" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I361" t="s">
         <v>66</v>
       </c>
       <c r="J361" t="s">
-        <v>466</v>
+        <v>363</v>
       </c>
     </row>
     <row r="362">
@@ -12379,16 +12394,16 @@
         <v>61</v>
       </c>
       <c r="G362" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="H362" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I362" t="s">
         <v>64</v>
       </c>
       <c r="J362" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row r="363">
@@ -12399,16 +12414,16 @@
         <v>61</v>
       </c>
       <c r="G363" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="H363" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I363" t="s">
         <v>66</v>
       </c>
       <c r="J363" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
     </row>
     <row r="364">
@@ -12419,16 +12434,16 @@
         <v>61</v>
       </c>
       <c r="G364" t="s">
+        <v>426</v>
+      </c>
+      <c r="H364" t="s">
+        <v>469</v>
+      </c>
+      <c r="I364" t="s">
+        <v>64</v>
+      </c>
+      <c r="J364" t="s">
         <v>470</v>
-      </c>
-      <c r="H364" t="s">
-        <v>471</v>
-      </c>
-      <c r="I364" t="s">
-        <v>64</v>
-      </c>
-      <c r="J364" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="365">
@@ -12439,16 +12454,16 @@
         <v>61</v>
       </c>
       <c r="G365" t="s">
+        <v>426</v>
+      </c>
+      <c r="H365" t="s">
+        <v>469</v>
+      </c>
+      <c r="I365" t="s">
+        <v>66</v>
+      </c>
+      <c r="J365" t="s">
         <v>470</v>
-      </c>
-      <c r="H365" t="s">
-        <v>471</v>
-      </c>
-      <c r="I365" t="s">
-        <v>66</v>
-      </c>
-      <c r="J365" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="366">
@@ -12459,16 +12474,16 @@
         <v>61</v>
       </c>
       <c r="G366" t="s">
+        <v>471</v>
+      </c>
+      <c r="H366" t="s">
         <v>472</v>
       </c>
-      <c r="H366" t="s">
+      <c r="I366" t="s">
+        <v>64</v>
+      </c>
+      <c r="J366" t="s">
         <v>473</v>
-      </c>
-      <c r="I366" t="s">
-        <v>64</v>
-      </c>
-      <c r="J366" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="367">
@@ -12479,16 +12494,16 @@
         <v>61</v>
       </c>
       <c r="G367" t="s">
+        <v>471</v>
+      </c>
+      <c r="H367" t="s">
         <v>472</v>
       </c>
-      <c r="H367" t="s">
+      <c r="I367" t="s">
+        <v>66</v>
+      </c>
+      <c r="J367" t="s">
         <v>473</v>
-      </c>
-      <c r="I367" t="s">
-        <v>66</v>
-      </c>
-      <c r="J367" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="368">
@@ -12499,16 +12514,16 @@
         <v>61</v>
       </c>
       <c r="G368" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H368" t="s">
+        <v>474</v>
+      </c>
+      <c r="I368" t="s">
+        <v>64</v>
+      </c>
+      <c r="J368" t="s">
         <v>475</v>
-      </c>
-      <c r="I368" t="s">
-        <v>64</v>
-      </c>
-      <c r="J368" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="369">
@@ -12519,10 +12534,10 @@
         <v>61</v>
       </c>
       <c r="G369" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H369" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I369" t="s">
         <v>66</v>
@@ -12539,16 +12554,16 @@
         <v>61</v>
       </c>
       <c r="G370" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H370" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I370" t="s">
         <v>64</v>
       </c>
       <c r="J370" t="s">
-        <v>478</v>
+        <v>280</v>
       </c>
     </row>
     <row r="371">
@@ -12559,16 +12574,16 @@
         <v>61</v>
       </c>
       <c r="G371" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H371" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I371" t="s">
         <v>66</v>
       </c>
       <c r="J371" t="s">
-        <v>478</v>
+        <v>280</v>
       </c>
     </row>
     <row r="372">
@@ -12579,16 +12594,16 @@
         <v>61</v>
       </c>
       <c r="G372" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H372" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I372" t="s">
         <v>64</v>
       </c>
       <c r="J372" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="373">
@@ -12599,16 +12614,16 @@
         <v>61</v>
       </c>
       <c r="G373" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H373" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I373" t="s">
         <v>66</v>
       </c>
       <c r="J373" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="374">
@@ -12619,16 +12634,16 @@
         <v>61</v>
       </c>
       <c r="G374" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H374" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I374" t="s">
         <v>64</v>
       </c>
       <c r="J374" t="s">
-        <v>74</v>
+        <v>483</v>
       </c>
     </row>
     <row r="375">
@@ -12639,16 +12654,16 @@
         <v>61</v>
       </c>
       <c r="G375" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H375" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I375" t="s">
         <v>66</v>
       </c>
       <c r="J375" t="s">
-        <v>74</v>
+        <v>483</v>
       </c>
     </row>
     <row r="376">
@@ -12659,16 +12674,16 @@
         <v>61</v>
       </c>
       <c r="G376" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H376" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I376" t="s">
         <v>64</v>
       </c>
       <c r="J376" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377">
@@ -12679,16 +12694,16 @@
         <v>61</v>
       </c>
       <c r="G377" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H377" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I377" t="s">
         <v>66</v>
       </c>
       <c r="J377" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="378">
@@ -12699,16 +12714,16 @@
         <v>61</v>
       </c>
       <c r="G378" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H378" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I378" t="s">
         <v>64</v>
       </c>
       <c r="J378" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="379">
@@ -12719,16 +12734,16 @@
         <v>61</v>
       </c>
       <c r="G379" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H379" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I379" t="s">
         <v>66</v>
       </c>
       <c r="J379" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="380">
@@ -12739,16 +12754,16 @@
         <v>61</v>
       </c>
       <c r="G380" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H380" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I380" t="s">
         <v>64</v>
       </c>
       <c r="J380" t="s">
-        <v>486</v>
+        <v>74</v>
       </c>
     </row>
     <row r="381">
@@ -12759,16 +12774,16 @@
         <v>61</v>
       </c>
       <c r="G381" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H381" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I381" t="s">
         <v>66</v>
       </c>
       <c r="J381" t="s">
-        <v>486</v>
+        <v>74</v>
       </c>
     </row>
     <row r="382">
@@ -12779,16 +12794,16 @@
         <v>61</v>
       </c>
       <c r="G382" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H382" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I382" t="s">
         <v>64</v>
       </c>
       <c r="J382" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383">
@@ -12799,16 +12814,16 @@
         <v>61</v>
       </c>
       <c r="G383" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H383" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I383" t="s">
         <v>66</v>
       </c>
       <c r="J383" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="384">
@@ -12819,10 +12834,10 @@
         <v>61</v>
       </c>
       <c r="G384" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H384" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I384" t="s">
         <v>64</v>
@@ -12839,10 +12854,10 @@
         <v>61</v>
       </c>
       <c r="G385" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H385" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I385" t="s">
         <v>66</v>
@@ -12859,16 +12874,16 @@
         <v>61</v>
       </c>
       <c r="G386" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H386" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I386" t="s">
         <v>64</v>
       </c>
       <c r="J386" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="387">
@@ -12879,16 +12894,16 @@
         <v>61</v>
       </c>
       <c r="G387" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H387" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I387" t="s">
         <v>66</v>
       </c>
       <c r="J387" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="388">
@@ -12899,16 +12914,16 @@
         <v>61</v>
       </c>
       <c r="G388" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H388" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I388" t="s">
         <v>64</v>
       </c>
       <c r="J388" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="389">
@@ -12919,16 +12934,16 @@
         <v>61</v>
       </c>
       <c r="G389" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H389" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I389" t="s">
         <v>66</v>
       </c>
       <c r="J389" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="390">
@@ -12939,16 +12954,16 @@
         <v>61</v>
       </c>
       <c r="G390" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H390" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I390" t="s">
         <v>64</v>
       </c>
       <c r="J390" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="391">
@@ -12959,16 +12974,16 @@
         <v>61</v>
       </c>
       <c r="G391" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H391" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I391" t="s">
         <v>66</v>
       </c>
       <c r="J391" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="392">
@@ -12979,16 +12994,16 @@
         <v>61</v>
       </c>
       <c r="G392" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H392" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I392" t="s">
         <v>64</v>
       </c>
       <c r="J392" t="s">
-        <v>90</v>
+        <v>499</v>
       </c>
     </row>
     <row r="393">
@@ -12999,16 +13014,16 @@
         <v>61</v>
       </c>
       <c r="G393" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H393" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I393" t="s">
         <v>66</v>
       </c>
       <c r="J393" t="s">
-        <v>90</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394">
@@ -13019,16 +13034,16 @@
         <v>61</v>
       </c>
       <c r="G394" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H394" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I394" t="s">
         <v>64</v>
       </c>
       <c r="J394" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="395">
@@ -13039,16 +13054,16 @@
         <v>61</v>
       </c>
       <c r="G395" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H395" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I395" t="s">
         <v>66</v>
       </c>
       <c r="J395" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="396">
@@ -13059,16 +13074,16 @@
         <v>61</v>
       </c>
       <c r="G396" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H396" t="s">
+        <v>502</v>
+      </c>
+      <c r="I396" t="s">
+        <v>64</v>
+      </c>
+      <c r="J396" t="s">
         <v>499</v>
-      </c>
-      <c r="I396" t="s">
-        <v>64</v>
-      </c>
-      <c r="J396" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="397">
@@ -13079,16 +13094,16 @@
         <v>61</v>
       </c>
       <c r="G397" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H397" t="s">
+        <v>502</v>
+      </c>
+      <c r="I397" t="s">
+        <v>66</v>
+      </c>
+      <c r="J397" t="s">
         <v>499</v>
-      </c>
-      <c r="I397" t="s">
-        <v>66</v>
-      </c>
-      <c r="J397" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="398">
@@ -13099,16 +13114,16 @@
         <v>61</v>
       </c>
       <c r="G398" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H398" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I398" t="s">
         <v>64</v>
       </c>
       <c r="J398" t="s">
-        <v>502</v>
+        <v>90</v>
       </c>
     </row>
     <row r="399">
@@ -13119,16 +13134,16 @@
         <v>61</v>
       </c>
       <c r="G399" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H399" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I399" t="s">
         <v>66</v>
       </c>
       <c r="J399" t="s">
-        <v>502</v>
+        <v>90</v>
       </c>
     </row>
     <row r="400">
@@ -13139,16 +13154,16 @@
         <v>61</v>
       </c>
       <c r="G400" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H400" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I400" t="s">
         <v>64</v>
       </c>
       <c r="J400" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401">
@@ -13159,16 +13174,16 @@
         <v>61</v>
       </c>
       <c r="G401" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H401" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I401" t="s">
         <v>66</v>
       </c>
       <c r="J401" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="402">
@@ -13179,16 +13194,16 @@
         <v>61</v>
       </c>
       <c r="G402" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H402" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I402" t="s">
         <v>64</v>
       </c>
       <c r="J402" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="403">
@@ -13199,16 +13214,16 @@
         <v>61</v>
       </c>
       <c r="G403" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H403" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I403" t="s">
         <v>66</v>
       </c>
       <c r="J403" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="404">
@@ -13219,16 +13234,16 @@
         <v>61</v>
       </c>
       <c r="G404" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H404" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I404" t="s">
         <v>64</v>
       </c>
       <c r="J404" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="405">
@@ -13239,16 +13254,16 @@
         <v>61</v>
       </c>
       <c r="G405" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H405" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I405" t="s">
         <v>66</v>
       </c>
       <c r="J405" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="406">
@@ -13259,16 +13274,16 @@
         <v>61</v>
       </c>
       <c r="G406" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H406" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I406" t="s">
         <v>64</v>
       </c>
       <c r="J406" t="s">
-        <v>259</v>
+        <v>511</v>
       </c>
     </row>
     <row r="407">
@@ -13279,16 +13294,16 @@
         <v>61</v>
       </c>
       <c r="G407" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H407" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I407" t="s">
         <v>66</v>
       </c>
       <c r="J407" t="s">
-        <v>259</v>
+        <v>511</v>
       </c>
     </row>
     <row r="408">
@@ -13299,16 +13314,16 @@
         <v>61</v>
       </c>
       <c r="G408" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H408" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I408" t="s">
         <v>64</v>
       </c>
       <c r="J408" t="s">
-        <v>510</v>
+        <v>403</v>
       </c>
     </row>
     <row r="409">
@@ -13319,16 +13334,16 @@
         <v>61</v>
       </c>
       <c r="G409" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H409" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I409" t="s">
         <v>66</v>
       </c>
       <c r="J409" t="s">
-        <v>510</v>
+        <v>403</v>
       </c>
     </row>
     <row r="410">
@@ -13339,16 +13354,16 @@
         <v>61</v>
       </c>
       <c r="G410" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H410" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I410" t="s">
         <v>64</v>
       </c>
       <c r="J410" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="411">
@@ -13359,16 +13374,16 @@
         <v>61</v>
       </c>
       <c r="G411" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H411" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I411" t="s">
         <v>66</v>
       </c>
       <c r="J411" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="412">
@@ -13379,16 +13394,16 @@
         <v>61</v>
       </c>
       <c r="G412" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H412" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I412" t="s">
         <v>64</v>
       </c>
       <c r="J412" t="s">
-        <v>514</v>
+        <v>259</v>
       </c>
     </row>
     <row r="413">
@@ -13399,16 +13414,16 @@
         <v>61</v>
       </c>
       <c r="G413" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H413" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I413" t="s">
         <v>66</v>
       </c>
       <c r="J413" t="s">
-        <v>514</v>
+        <v>259</v>
       </c>
     </row>
     <row r="414">
@@ -13419,16 +13434,16 @@
         <v>61</v>
       </c>
       <c r="G414" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H414" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I414" t="s">
         <v>64</v>
       </c>
       <c r="J414" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="415">
@@ -13439,16 +13454,16 @@
         <v>61</v>
       </c>
       <c r="G415" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H415" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I415" t="s">
         <v>66</v>
       </c>
       <c r="J415" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="416">
@@ -13459,16 +13474,16 @@
         <v>61</v>
       </c>
       <c r="G416" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H416" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I416" t="s">
         <v>64</v>
       </c>
       <c r="J416" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="417">
@@ -13479,16 +13494,16 @@
         <v>61</v>
       </c>
       <c r="G417" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H417" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I417" t="s">
         <v>66</v>
       </c>
       <c r="J417" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="418">
@@ -13499,16 +13514,16 @@
         <v>61</v>
       </c>
       <c r="G418" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H418" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I418" t="s">
         <v>64</v>
       </c>
       <c r="J418" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="419">
@@ -13519,16 +13534,16 @@
         <v>61</v>
       </c>
       <c r="G419" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H419" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I419" t="s">
         <v>66</v>
       </c>
       <c r="J419" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="420">
@@ -13539,16 +13554,16 @@
         <v>61</v>
       </c>
       <c r="G420" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H420" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I420" t="s">
         <v>64</v>
       </c>
       <c r="J420" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="421">
@@ -13559,16 +13574,16 @@
         <v>61</v>
       </c>
       <c r="G421" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H421" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I421" t="s">
         <v>66</v>
       </c>
       <c r="J421" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="422">
@@ -13579,16 +13594,16 @@
         <v>61</v>
       </c>
       <c r="G422" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H422" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I422" t="s">
         <v>64</v>
       </c>
       <c r="J422" t="s">
-        <v>438</v>
+        <v>525</v>
       </c>
     </row>
     <row r="423">
@@ -13599,16 +13614,16 @@
         <v>61</v>
       </c>
       <c r="G423" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H423" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I423" t="s">
         <v>66</v>
       </c>
       <c r="J423" t="s">
-        <v>438</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424">
@@ -13619,16 +13634,16 @@
         <v>61</v>
       </c>
       <c r="G424" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H424" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I424" t="s">
         <v>64</v>
       </c>
       <c r="J424" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="425">
@@ -13639,16 +13654,16 @@
         <v>61</v>
       </c>
       <c r="G425" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H425" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I425" t="s">
         <v>66</v>
       </c>
       <c r="J425" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="426">
@@ -13659,16 +13674,16 @@
         <v>61</v>
       </c>
       <c r="G426" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H426" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I426" t="s">
         <v>64</v>
       </c>
       <c r="J426" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="427">
@@ -13679,16 +13694,16 @@
         <v>61</v>
       </c>
       <c r="G427" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H427" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I427" t="s">
         <v>66</v>
       </c>
       <c r="J427" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="428">
@@ -13699,16 +13714,16 @@
         <v>61</v>
       </c>
       <c r="G428" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H428" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I428" t="s">
         <v>64</v>
       </c>
       <c r="J428" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="429">
@@ -13719,16 +13734,16 @@
         <v>61</v>
       </c>
       <c r="G429" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H429" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I429" t="s">
         <v>66</v>
       </c>
       <c r="J429" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="430">
@@ -13739,16 +13754,16 @@
         <v>61</v>
       </c>
       <c r="G430" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H430" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I430" t="s">
         <v>64</v>
       </c>
       <c r="J430" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="431">
@@ -13759,16 +13774,16 @@
         <v>61</v>
       </c>
       <c r="G431" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H431" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I431" t="s">
         <v>66</v>
       </c>
       <c r="J431" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="432">
@@ -13779,10 +13794,10 @@
         <v>61</v>
       </c>
       <c r="G432" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H432" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I432" t="s">
         <v>64</v>
@@ -13799,10 +13814,10 @@
         <v>61</v>
       </c>
       <c r="G433" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H433" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I433" t="s">
         <v>66</v>
@@ -13819,16 +13834,16 @@
         <v>61</v>
       </c>
       <c r="G434" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H434" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I434" t="s">
         <v>64</v>
       </c>
       <c r="J434" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="435">
@@ -13839,16 +13854,16 @@
         <v>61</v>
       </c>
       <c r="G435" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H435" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I435" t="s">
         <v>66</v>
       </c>
       <c r="J435" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="436">
@@ -13859,16 +13874,16 @@
         <v>61</v>
       </c>
       <c r="G436" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H436" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I436" t="s">
         <v>64</v>
       </c>
       <c r="J436" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="437">
@@ -13879,16 +13894,16 @@
         <v>61</v>
       </c>
       <c r="G437" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H437" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I437" t="s">
         <v>66</v>
       </c>
       <c r="J437" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="438">
@@ -13899,16 +13914,16 @@
         <v>61</v>
       </c>
       <c r="G438" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H438" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I438" t="s">
         <v>64</v>
       </c>
       <c r="J438" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="439">
@@ -13919,16 +13934,16 @@
         <v>61</v>
       </c>
       <c r="G439" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H439" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I439" t="s">
         <v>66</v>
       </c>
       <c r="J439" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="440">
@@ -13939,16 +13954,16 @@
         <v>61</v>
       </c>
       <c r="G440" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H440" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I440" t="s">
         <v>64</v>
       </c>
       <c r="J440" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="441">
@@ -13959,16 +13974,16 @@
         <v>61</v>
       </c>
       <c r="G441" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H441" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I441" t="s">
         <v>66</v>
       </c>
       <c r="J441" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="442">
@@ -13979,16 +13994,16 @@
         <v>61</v>
       </c>
       <c r="G442" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H442" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I442" t="s">
         <v>64</v>
       </c>
       <c r="J442" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="443">
@@ -13999,16 +14014,16 @@
         <v>61</v>
       </c>
       <c r="G443" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H443" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I443" t="s">
         <v>66</v>
       </c>
       <c r="J443" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="444">
@@ -14019,16 +14034,16 @@
         <v>61</v>
       </c>
       <c r="G444" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H444" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I444" t="s">
         <v>64</v>
       </c>
       <c r="J444" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="445">
@@ -14039,16 +14054,16 @@
         <v>61</v>
       </c>
       <c r="G445" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H445" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I445" t="s">
         <v>66</v>
       </c>
       <c r="J445" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="446">
@@ -14059,16 +14074,16 @@
         <v>61</v>
       </c>
       <c r="G446" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H446" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I446" t="s">
         <v>64</v>
       </c>
       <c r="J446" t="s">
-        <v>246</v>
+        <v>547</v>
       </c>
     </row>
     <row r="447">
@@ -14079,16 +14094,16 @@
         <v>61</v>
       </c>
       <c r="G447" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H447" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I447" t="s">
         <v>66</v>
       </c>
       <c r="J447" t="s">
-        <v>246</v>
+        <v>547</v>
       </c>
     </row>
     <row r="448">
@@ -14099,16 +14114,16 @@
         <v>61</v>
       </c>
       <c r="G448" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H448" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I448" t="s">
         <v>64</v>
       </c>
       <c r="J448" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="449">
@@ -14119,16 +14134,16 @@
         <v>61</v>
       </c>
       <c r="G449" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H449" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I449" t="s">
         <v>66</v>
       </c>
       <c r="J449" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="450">
@@ -14139,16 +14154,16 @@
         <v>61</v>
       </c>
       <c r="G450" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H450" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I450" t="s">
         <v>64</v>
       </c>
       <c r="J450" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="451">
@@ -14159,16 +14174,16 @@
         <v>61</v>
       </c>
       <c r="G451" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H451" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I451" t="s">
         <v>66</v>
       </c>
       <c r="J451" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="452">
@@ -14179,16 +14194,16 @@
         <v>61</v>
       </c>
       <c r="G452" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H452" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I452" t="s">
         <v>64</v>
       </c>
       <c r="J452" t="s">
-        <v>551</v>
+        <v>246</v>
       </c>
     </row>
     <row r="453">
@@ -14199,16 +14214,16 @@
         <v>61</v>
       </c>
       <c r="G453" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H453" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I453" t="s">
         <v>66</v>
       </c>
       <c r="J453" t="s">
-        <v>551</v>
+        <v>246</v>
       </c>
     </row>
     <row r="454">
@@ -14219,16 +14234,16 @@
         <v>61</v>
       </c>
       <c r="G454" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H454" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I454" t="s">
         <v>64</v>
       </c>
       <c r="J454" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="455">
@@ -14239,16 +14254,16 @@
         <v>61</v>
       </c>
       <c r="G455" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H455" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I455" t="s">
         <v>66</v>
       </c>
       <c r="J455" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="456">
@@ -14259,16 +14274,16 @@
         <v>61</v>
       </c>
       <c r="G456" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H456" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I456" t="s">
         <v>64</v>
       </c>
       <c r="J456" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="457">
@@ -14279,16 +14294,16 @@
         <v>61</v>
       </c>
       <c r="G457" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H457" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I457" t="s">
         <v>66</v>
       </c>
       <c r="J457" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="458">
@@ -14299,16 +14314,16 @@
         <v>61</v>
       </c>
       <c r="G458" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H458" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I458" t="s">
         <v>64</v>
       </c>
       <c r="J458" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="459">
@@ -14319,16 +14334,16 @@
         <v>61</v>
       </c>
       <c r="G459" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H459" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I459" t="s">
         <v>66</v>
       </c>
       <c r="J459" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="460">
@@ -14339,7 +14354,7 @@
         <v>61</v>
       </c>
       <c r="G460" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
       <c r="H460" t="s">
         <v>559</v>
@@ -14348,7 +14363,7 @@
         <v>64</v>
       </c>
       <c r="J460" t="s">
-        <v>258</v>
+        <v>560</v>
       </c>
     </row>
     <row r="461">
@@ -14359,7 +14374,7 @@
         <v>61</v>
       </c>
       <c r="G461" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
       <c r="H461" t="s">
         <v>559</v>
@@ -14368,7 +14383,7 @@
         <v>66</v>
       </c>
       <c r="J461" t="s">
-        <v>259</v>
+        <v>560</v>
       </c>
     </row>
     <row r="462">
@@ -14379,16 +14394,16 @@
         <v>61</v>
       </c>
       <c r="G462" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
       <c r="H462" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I462" t="s">
         <v>64</v>
       </c>
       <c r="J462" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="463">
@@ -14399,10 +14414,10 @@
         <v>61</v>
       </c>
       <c r="G463" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
       <c r="H463" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I463" t="s">
         <v>66</v>
@@ -14419,7 +14434,7 @@
         <v>61</v>
       </c>
       <c r="G464" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
       <c r="H464" t="s">
         <v>563</v>
@@ -14439,7 +14454,7 @@
         <v>61</v>
       </c>
       <c r="G465" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
       <c r="H465" t="s">
         <v>563</v>
@@ -14448,7 +14463,7 @@
         <v>66</v>
       </c>
       <c r="J465" t="s">
-        <v>382</v>
+        <v>564</v>
       </c>
     </row>
     <row r="466">
@@ -14459,16 +14474,16 @@
         <v>61</v>
       </c>
       <c r="G466" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H466" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I466" t="s">
         <v>64</v>
       </c>
       <c r="J466" t="s">
-        <v>566</v>
+        <v>258</v>
       </c>
     </row>
     <row r="467">
@@ -14479,16 +14494,16 @@
         <v>61</v>
       </c>
       <c r="G467" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H467" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I467" t="s">
         <v>66</v>
       </c>
       <c r="J467" t="s">
-        <v>567</v>
+        <v>259</v>
       </c>
     </row>
     <row r="468">
@@ -14499,16 +14514,16 @@
         <v>61</v>
       </c>
       <c r="G468" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H468" t="s">
+        <v>567</v>
+      </c>
+      <c r="I468" t="s">
+        <v>64</v>
+      </c>
+      <c r="J468" t="s">
         <v>568</v>
-      </c>
-      <c r="I468" t="s">
-        <v>64</v>
-      </c>
-      <c r="J468" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="469">
@@ -14519,16 +14534,16 @@
         <v>61</v>
       </c>
       <c r="G469" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H469" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I469" t="s">
         <v>66</v>
       </c>
       <c r="J469" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="470">
@@ -14539,10 +14554,10 @@
         <v>61</v>
       </c>
       <c r="G470" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H470" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="I470" t="s">
         <v>64</v>
@@ -14559,16 +14574,16 @@
         <v>61</v>
       </c>
       <c r="G471" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H471" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="I471" t="s">
         <v>66</v>
       </c>
       <c r="J471" t="s">
-        <v>572</v>
+        <v>389</v>
       </c>
     </row>
     <row r="472">
@@ -14579,16 +14594,16 @@
         <v>61</v>
       </c>
       <c r="G472" t="s">
+        <v>565</v>
+      </c>
+      <c r="H472" t="s">
+        <v>572</v>
+      </c>
+      <c r="I472" t="s">
+        <v>64</v>
+      </c>
+      <c r="J472" t="s">
         <v>573</v>
-      </c>
-      <c r="H472" t="s">
-        <v>574</v>
-      </c>
-      <c r="I472" t="s">
-        <v>64</v>
-      </c>
-      <c r="J472" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="473">
@@ -14599,16 +14614,16 @@
         <v>61</v>
       </c>
       <c r="G473" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H473" t="s">
+        <v>572</v>
+      </c>
+      <c r="I473" t="s">
+        <v>66</v>
+      </c>
+      <c r="J473" t="s">
         <v>574</v>
-      </c>
-      <c r="I473" t="s">
-        <v>66</v>
-      </c>
-      <c r="J473" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="474">
@@ -14619,7 +14634,7 @@
         <v>61</v>
       </c>
       <c r="G474" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H474" t="s">
         <v>575</v>
@@ -14628,7 +14643,7 @@
         <v>64</v>
       </c>
       <c r="J474" t="s">
-        <v>261</v>
+        <v>576</v>
       </c>
     </row>
     <row r="475">
@@ -14639,7 +14654,7 @@
         <v>61</v>
       </c>
       <c r="G475" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H475" t="s">
         <v>575</v>
@@ -14648,7 +14663,7 @@
         <v>66</v>
       </c>
       <c r="J475" t="s">
-        <v>262</v>
+        <v>577</v>
       </c>
     </row>
     <row r="476">
@@ -14659,16 +14674,16 @@
         <v>61</v>
       </c>
       <c r="G476" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H476" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="I476" t="s">
         <v>64</v>
       </c>
       <c r="J476" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="477">
@@ -14679,16 +14694,16 @@
         <v>61</v>
       </c>
       <c r="G477" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H477" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="I477" t="s">
         <v>66</v>
       </c>
       <c r="J477" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478">
@@ -14699,16 +14714,16 @@
         <v>61</v>
       </c>
       <c r="G478" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H478" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I478" t="s">
         <v>64</v>
       </c>
       <c r="J478" t="s">
-        <v>579</v>
+        <v>258</v>
       </c>
     </row>
     <row r="479">
@@ -14719,16 +14734,16 @@
         <v>61</v>
       </c>
       <c r="G479" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H479" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I479" t="s">
         <v>66</v>
       </c>
       <c r="J479" t="s">
-        <v>580</v>
+        <v>259</v>
       </c>
     </row>
     <row r="480">
@@ -14739,16 +14754,16 @@
         <v>61</v>
       </c>
       <c r="G480" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H480" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I480" t="s">
         <v>64</v>
       </c>
       <c r="J480" t="s">
-        <v>582</v>
+        <v>261</v>
       </c>
     </row>
     <row r="481">
@@ -14759,16 +14774,16 @@
         <v>61</v>
       </c>
       <c r="G481" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H481" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I481" t="s">
         <v>66</v>
       </c>
       <c r="J481" t="s">
-        <v>583</v>
+        <v>262</v>
       </c>
     </row>
     <row r="482">
@@ -14779,16 +14794,16 @@
         <v>61</v>
       </c>
       <c r="G482" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H482" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="I482" t="s">
         <v>64</v>
       </c>
       <c r="J482" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="483">
@@ -14799,16 +14814,16 @@
         <v>61</v>
       </c>
       <c r="G483" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H483" t="s">
+        <v>557</v>
+      </c>
+      <c r="I483" t="s">
+        <v>66</v>
+      </c>
+      <c r="J483" t="s">
         <v>584</v>
-      </c>
-      <c r="I483" t="s">
-        <v>66</v>
-      </c>
-      <c r="J483" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="484">
@@ -14819,16 +14834,16 @@
         <v>61</v>
       </c>
       <c r="G484" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H484" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I484" t="s">
         <v>64</v>
       </c>
       <c r="J484" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="485">
@@ -14839,16 +14854,16 @@
         <v>61</v>
       </c>
       <c r="G485" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H485" t="s">
+        <v>585</v>
+      </c>
+      <c r="I485" t="s">
+        <v>66</v>
+      </c>
+      <c r="J485" t="s">
         <v>587</v>
-      </c>
-      <c r="I485" t="s">
-        <v>66</v>
-      </c>
-      <c r="J485" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="486">
@@ -14859,16 +14874,16 @@
         <v>61</v>
       </c>
       <c r="G486" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H486" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I486" t="s">
         <v>64</v>
       </c>
       <c r="J486" t="s">
-        <v>267</v>
+        <v>589</v>
       </c>
     </row>
     <row r="487">
@@ -14879,16 +14894,16 @@
         <v>61</v>
       </c>
       <c r="G487" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H487" t="s">
+        <v>588</v>
+      </c>
+      <c r="I487" t="s">
+        <v>66</v>
+      </c>
+      <c r="J487" t="s">
         <v>590</v>
-      </c>
-      <c r="I487" t="s">
-        <v>66</v>
-      </c>
-      <c r="J487" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="488">
@@ -14899,7 +14914,7 @@
         <v>61</v>
       </c>
       <c r="G488" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H488" t="s">
         <v>591</v>
@@ -14919,7 +14934,7 @@
         <v>61</v>
       </c>
       <c r="G489" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H489" t="s">
         <v>591</v>
@@ -14939,7 +14954,7 @@
         <v>61</v>
       </c>
       <c r="G490" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H490" t="s">
         <v>594</v>
@@ -14959,7 +14974,7 @@
         <v>61</v>
       </c>
       <c r="G491" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H491" t="s">
         <v>594</v>
@@ -14968,7 +14983,7 @@
         <v>66</v>
       </c>
       <c r="J491" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
     </row>
     <row r="492">
@@ -14979,7 +14994,7 @@
         <v>61</v>
       </c>
       <c r="G492" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H492" t="s">
         <v>597</v>
@@ -14988,7 +15003,7 @@
         <v>64</v>
       </c>
       <c r="J492" t="s">
-        <v>598</v>
+        <v>270</v>
       </c>
     </row>
     <row r="493">
@@ -14999,7 +15014,7 @@
         <v>61</v>
       </c>
       <c r="G493" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H493" t="s">
         <v>597</v>
@@ -15008,7 +15023,7 @@
         <v>66</v>
       </c>
       <c r="J493" t="s">
-        <v>599</v>
+        <v>271</v>
       </c>
     </row>
     <row r="494">
@@ -15019,16 +15034,16 @@
         <v>61</v>
       </c>
       <c r="G494" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H494" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I494" t="s">
         <v>64</v>
       </c>
       <c r="J494" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="495">
@@ -15039,16 +15054,16 @@
         <v>61</v>
       </c>
       <c r="G495" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H495" t="s">
+        <v>598</v>
+      </c>
+      <c r="I495" t="s">
+        <v>66</v>
+      </c>
+      <c r="J495" t="s">
         <v>600</v>
-      </c>
-      <c r="I495" t="s">
-        <v>66</v>
-      </c>
-      <c r="J495" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="496">
@@ -15059,16 +15074,16 @@
         <v>61</v>
       </c>
       <c r="G496" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H496" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I496" t="s">
         <v>64</v>
       </c>
       <c r="J496" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="497">
@@ -15079,16 +15094,16 @@
         <v>61</v>
       </c>
       <c r="G497" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H497" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I497" t="s">
         <v>66</v>
       </c>
       <c r="J497" t="s">
-        <v>605</v>
+        <v>409</v>
       </c>
     </row>
     <row r="498">
@@ -15099,16 +15114,16 @@
         <v>61</v>
       </c>
       <c r="G498" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H498" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I498" t="s">
         <v>64</v>
       </c>
       <c r="J498" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="499">
@@ -15119,16 +15134,16 @@
         <v>61</v>
       </c>
       <c r="G499" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H499" t="s">
+        <v>604</v>
+      </c>
+      <c r="I499" t="s">
+        <v>66</v>
+      </c>
+      <c r="J499" t="s">
         <v>606</v>
-      </c>
-      <c r="I499" t="s">
-        <v>66</v>
-      </c>
-      <c r="J499" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="500">
@@ -15139,16 +15154,16 @@
         <v>61</v>
       </c>
       <c r="G500" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H500" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I500" t="s">
         <v>64</v>
       </c>
       <c r="J500" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="501">
@@ -15159,16 +15174,16 @@
         <v>61</v>
       </c>
       <c r="G501" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H501" t="s">
+        <v>607</v>
+      </c>
+      <c r="I501" t="s">
+        <v>66</v>
+      </c>
+      <c r="J501" t="s">
         <v>609</v>
-      </c>
-      <c r="I501" t="s">
-        <v>66</v>
-      </c>
-      <c r="J501" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="502">
@@ -15179,16 +15194,16 @@
         <v>61</v>
       </c>
       <c r="G502" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H502" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I502" t="s">
         <v>64</v>
       </c>
       <c r="J502" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="503">
@@ -15199,16 +15214,16 @@
         <v>61</v>
       </c>
       <c r="G503" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H503" t="s">
+        <v>610</v>
+      </c>
+      <c r="I503" t="s">
+        <v>66</v>
+      </c>
+      <c r="J503" t="s">
         <v>612</v>
-      </c>
-      <c r="I503" t="s">
-        <v>66</v>
-      </c>
-      <c r="J503" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="504">
@@ -15219,16 +15234,16 @@
         <v>61</v>
       </c>
       <c r="G504" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H504" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I504" t="s">
         <v>64</v>
       </c>
       <c r="J504" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="505">
@@ -15239,16 +15254,16 @@
         <v>61</v>
       </c>
       <c r="G505" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H505" t="s">
+        <v>613</v>
+      </c>
+      <c r="I505" t="s">
+        <v>66</v>
+      </c>
+      <c r="J505" t="s">
         <v>615</v>
-      </c>
-      <c r="I505" t="s">
-        <v>66</v>
-      </c>
-      <c r="J505" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="506">
@@ -15259,16 +15274,16 @@
         <v>61</v>
       </c>
       <c r="G506" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H506" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I506" t="s">
         <v>64</v>
       </c>
       <c r="J506" t="s">
-        <v>258</v>
+        <v>617</v>
       </c>
     </row>
     <row r="507">
@@ -15279,16 +15294,16 @@
         <v>61</v>
       </c>
       <c r="G507" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H507" t="s">
+        <v>616</v>
+      </c>
+      <c r="I507" t="s">
+        <v>66</v>
+      </c>
+      <c r="J507" t="s">
         <v>618</v>
-      </c>
-      <c r="I507" t="s">
-        <v>66</v>
-      </c>
-      <c r="J507" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="508">
@@ -15299,7 +15314,7 @@
         <v>61</v>
       </c>
       <c r="G508" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H508" t="s">
         <v>619</v>
@@ -15308,7 +15323,7 @@
         <v>64</v>
       </c>
       <c r="J508" t="s">
-        <v>261</v>
+        <v>620</v>
       </c>
     </row>
     <row r="509">
@@ -15319,7 +15334,7 @@
         <v>61</v>
       </c>
       <c r="G509" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H509" t="s">
         <v>619</v>
@@ -15328,7 +15343,7 @@
         <v>66</v>
       </c>
       <c r="J509" t="s">
-        <v>262</v>
+        <v>621</v>
       </c>
     </row>
     <row r="510">
@@ -15339,16 +15354,16 @@
         <v>61</v>
       </c>
       <c r="G510" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H510" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I510" t="s">
         <v>64</v>
       </c>
       <c r="J510" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="511">
@@ -15359,16 +15374,16 @@
         <v>61</v>
       </c>
       <c r="G511" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H511" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I511" t="s">
         <v>66</v>
       </c>
       <c r="J511" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="512">
@@ -15379,16 +15394,16 @@
         <v>61</v>
       </c>
       <c r="G512" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H512" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="I512" t="s">
         <v>64</v>
       </c>
       <c r="J512" t="s">
-        <v>624</v>
+        <v>258</v>
       </c>
     </row>
     <row r="513">
@@ -15399,16 +15414,16 @@
         <v>61</v>
       </c>
       <c r="G513" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H513" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="I513" t="s">
         <v>66</v>
       </c>
       <c r="J513" t="s">
-        <v>625</v>
+        <v>259</v>
       </c>
     </row>
     <row r="514">
@@ -15419,16 +15434,16 @@
         <v>61</v>
       </c>
       <c r="G514" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H514" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="I514" t="s">
         <v>64</v>
       </c>
       <c r="J514" t="s">
-        <v>626</v>
+        <v>261</v>
       </c>
     </row>
     <row r="515">
@@ -15439,16 +15454,16 @@
         <v>61</v>
       </c>
       <c r="G515" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H515" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="I515" t="s">
         <v>66</v>
       </c>
       <c r="J515" t="s">
-        <v>627</v>
+        <v>262</v>
       </c>
     </row>
     <row r="516">
@@ -15459,16 +15474,16 @@
         <v>61</v>
       </c>
       <c r="G516" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H516" t="s">
+        <v>627</v>
+      </c>
+      <c r="I516" t="s">
+        <v>64</v>
+      </c>
+      <c r="J516" t="s">
         <v>628</v>
-      </c>
-      <c r="I516" t="s">
-        <v>64</v>
-      </c>
-      <c r="J516" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="517">
@@ -15479,16 +15494,16 @@
         <v>61</v>
       </c>
       <c r="G517" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H517" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I517" t="s">
         <v>66</v>
       </c>
       <c r="J517" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="518">
@@ -15499,16 +15514,16 @@
         <v>61</v>
       </c>
       <c r="G518" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H518" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="I518" t="s">
         <v>64</v>
       </c>
       <c r="J518" t="s">
-        <v>579</v>
+        <v>631</v>
       </c>
     </row>
     <row r="519">
@@ -15519,16 +15534,16 @@
         <v>61</v>
       </c>
       <c r="G519" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H519" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="I519" t="s">
         <v>66</v>
       </c>
       <c r="J519" t="s">
-        <v>580</v>
+        <v>632</v>
       </c>
     </row>
     <row r="520">
@@ -15539,16 +15554,16 @@
         <v>61</v>
       </c>
       <c r="G520" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H520" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I520" t="s">
         <v>64</v>
       </c>
       <c r="J520" t="s">
-        <v>588</v>
+        <v>633</v>
       </c>
     </row>
     <row r="521">
@@ -15559,16 +15574,16 @@
         <v>61</v>
       </c>
       <c r="G521" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H521" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I521" t="s">
         <v>66</v>
       </c>
       <c r="J521" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
     </row>
     <row r="522">
@@ -15579,16 +15594,16 @@
         <v>61</v>
       </c>
       <c r="G522" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H522" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="I522" t="s">
         <v>64</v>
       </c>
       <c r="J522" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="523">
@@ -15599,16 +15614,16 @@
         <v>61</v>
       </c>
       <c r="G523" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H523" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="I523" t="s">
         <v>66</v>
       </c>
       <c r="J523" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="524">
@@ -15619,16 +15634,16 @@
         <v>61</v>
       </c>
       <c r="G524" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H524" t="s">
-        <v>281</v>
+        <v>572</v>
       </c>
       <c r="I524" t="s">
         <v>64</v>
       </c>
       <c r="J524" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="525">
@@ -15639,16 +15654,16 @@
         <v>61</v>
       </c>
       <c r="G525" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H525" t="s">
-        <v>281</v>
+        <v>572</v>
       </c>
       <c r="I525" t="s">
         <v>66</v>
       </c>
       <c r="J525" t="s">
-        <v>635</v>
+        <v>587</v>
       </c>
     </row>
     <row r="526">
@@ -15659,16 +15674,16 @@
         <v>61</v>
       </c>
       <c r="G526" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H526" t="s">
-        <v>636</v>
+        <v>575</v>
       </c>
       <c r="I526" t="s">
         <v>64</v>
       </c>
       <c r="J526" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
     </row>
     <row r="527">
@@ -15679,16 +15694,16 @@
         <v>61</v>
       </c>
       <c r="G527" t="s">
+        <v>603</v>
+      </c>
+      <c r="H527" t="s">
+        <v>575</v>
+      </c>
+      <c r="I527" t="s">
+        <v>66</v>
+      </c>
+      <c r="J527" t="s">
         <v>596</v>
-      </c>
-      <c r="H527" t="s">
-        <v>636</v>
-      </c>
-      <c r="I527" t="s">
-        <v>66</v>
-      </c>
-      <c r="J527" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="528">
@@ -15699,10 +15714,10 @@
         <v>61</v>
       </c>
       <c r="G528" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H528" t="s">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="I528" t="s">
         <v>64</v>
@@ -15719,10 +15734,10 @@
         <v>61</v>
       </c>
       <c r="G529" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H529" t="s">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="I529" t="s">
         <v>66</v>
@@ -15739,16 +15754,16 @@
         <v>61</v>
       </c>
       <c r="G530" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H530" t="s">
+        <v>289</v>
+      </c>
+      <c r="I530" t="s">
+        <v>64</v>
+      </c>
+      <c r="J530" t="s">
         <v>641</v>
-      </c>
-      <c r="I530" t="s">
-        <v>64</v>
-      </c>
-      <c r="J530" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="531">
@@ -15759,16 +15774,16 @@
         <v>61</v>
       </c>
       <c r="G531" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H531" t="s">
-        <v>641</v>
+        <v>289</v>
       </c>
       <c r="I531" t="s">
         <v>66</v>
       </c>
       <c r="J531" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="532">
@@ -15779,16 +15794,16 @@
         <v>61</v>
       </c>
       <c r="G532" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H532" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I532" t="s">
         <v>64</v>
       </c>
       <c r="J532" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="533">
@@ -15799,16 +15814,16 @@
         <v>61</v>
       </c>
       <c r="G533" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H533" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I533" t="s">
         <v>66</v>
       </c>
       <c r="J533" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="534">
@@ -15819,16 +15834,16 @@
         <v>61</v>
       </c>
       <c r="G534" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="H534" t="s">
-        <v>646</v>
+        <v>557</v>
       </c>
       <c r="I534" t="s">
         <v>64</v>
       </c>
       <c r="J534" t="s">
-        <v>647</v>
+        <v>282</v>
       </c>
     </row>
     <row r="535">
@@ -15839,16 +15854,16 @@
         <v>61</v>
       </c>
       <c r="G535" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="H535" t="s">
-        <v>646</v>
+        <v>557</v>
       </c>
       <c r="I535" t="s">
         <v>66</v>
       </c>
       <c r="J535" t="s">
-        <v>648</v>
+        <v>265</v>
       </c>
     </row>
     <row r="536">
@@ -15859,16 +15874,16 @@
         <v>61</v>
       </c>
       <c r="G536" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="H536" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I536" t="s">
         <v>64</v>
       </c>
       <c r="J536" t="s">
-        <v>650</v>
+        <v>265</v>
       </c>
     </row>
     <row r="537">
@@ -15879,16 +15894,16 @@
         <v>61</v>
       </c>
       <c r="G537" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="H537" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I537" t="s">
         <v>66</v>
       </c>
       <c r="J537" t="s">
-        <v>651</v>
+        <v>265</v>
       </c>
     </row>
     <row r="538">
@@ -15899,16 +15914,16 @@
         <v>61</v>
       </c>
       <c r="G538" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="H538" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I538" t="s">
         <v>64</v>
       </c>
       <c r="J538" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="539">
@@ -15919,16 +15934,16 @@
         <v>61</v>
       </c>
       <c r="G539" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="H539" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I539" t="s">
         <v>66</v>
       </c>
       <c r="J539" t="s">
-        <v>44</v>
+        <v>649</v>
       </c>
     </row>
     <row r="540">
@@ -15939,16 +15954,16 @@
         <v>61</v>
       </c>
       <c r="G540" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H540" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I540" t="s">
         <v>64</v>
       </c>
       <c r="J540" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="541">
@@ -15959,16 +15974,16 @@
         <v>61</v>
       </c>
       <c r="G541" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H541" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I541" t="s">
         <v>66</v>
       </c>
       <c r="J541" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="542">
@@ -15979,16 +15994,16 @@
         <v>61</v>
       </c>
       <c r="G542" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H542" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I542" t="s">
         <v>64</v>
       </c>
       <c r="J542" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="543">
@@ -15999,16 +16014,16 @@
         <v>61</v>
       </c>
       <c r="G543" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H543" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I543" t="s">
         <v>66</v>
       </c>
       <c r="J543" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="544">
@@ -16019,16 +16034,16 @@
         <v>61</v>
       </c>
       <c r="G544" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H544" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I544" t="s">
         <v>64</v>
       </c>
       <c r="J544" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="545">
@@ -16039,16 +16054,16 @@
         <v>61</v>
       </c>
       <c r="G545" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H545" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I545" t="s">
         <v>66</v>
       </c>
       <c r="J545" t="s">
-        <v>662</v>
+        <v>44</v>
       </c>
     </row>
     <row r="546">
@@ -16059,16 +16074,16 @@
         <v>61</v>
       </c>
       <c r="G546" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H546" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I546" t="s">
         <v>64</v>
       </c>
       <c r="J546" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="547">
@@ -16079,16 +16094,16 @@
         <v>61</v>
       </c>
       <c r="G547" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H547" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I547" t="s">
         <v>66</v>
       </c>
       <c r="J547" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="548">
@@ -16099,16 +16114,16 @@
         <v>61</v>
       </c>
       <c r="G548" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H548" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I548" t="s">
         <v>64</v>
       </c>
       <c r="J548" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="549">
@@ -16119,16 +16134,16 @@
         <v>61</v>
       </c>
       <c r="G549" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H549" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I549" t="s">
         <v>66</v>
       </c>
       <c r="J549" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="550">
@@ -16139,16 +16154,16 @@
         <v>61</v>
       </c>
       <c r="G550" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H550" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I550" t="s">
         <v>64</v>
       </c>
       <c r="J550" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="551">
@@ -16159,16 +16174,16 @@
         <v>61</v>
       </c>
       <c r="G551" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H551" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I551" t="s">
         <v>66</v>
       </c>
       <c r="J551" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="552">
@@ -16179,16 +16194,16 @@
         <v>61</v>
       </c>
       <c r="G552" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H552" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I552" t="s">
         <v>64</v>
       </c>
       <c r="J552" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="553">
@@ -16199,16 +16214,16 @@
         <v>61</v>
       </c>
       <c r="G553" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H553" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I553" t="s">
         <v>66</v>
       </c>
       <c r="J553" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="554">
@@ -16219,16 +16234,16 @@
         <v>61</v>
       </c>
       <c r="G554" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H554" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I554" t="s">
         <v>64</v>
       </c>
       <c r="J554" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="555">
@@ -16239,16 +16254,16 @@
         <v>61</v>
       </c>
       <c r="G555" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H555" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I555" t="s">
         <v>66</v>
       </c>
       <c r="J555" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="556">
@@ -16259,16 +16274,16 @@
         <v>61</v>
       </c>
       <c r="G556" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="H556" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I556" t="s">
         <v>64</v>
       </c>
       <c r="J556" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="557">
@@ -16279,16 +16294,16 @@
         <v>61</v>
       </c>
       <c r="G557" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="H557" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I557" t="s">
         <v>66</v>
       </c>
       <c r="J557" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="558">
@@ -16299,16 +16314,16 @@
         <v>61</v>
       </c>
       <c r="G558" t="s">
+        <v>650</v>
+      </c>
+      <c r="H558" t="s">
+        <v>677</v>
+      </c>
+      <c r="I558" t="s">
+        <v>64</v>
+      </c>
+      <c r="J558" t="s">
         <v>678</v>
-      </c>
-      <c r="H558" t="s">
-        <v>681</v>
-      </c>
-      <c r="I558" t="s">
-        <v>64</v>
-      </c>
-      <c r="J558" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="559">
@@ -16319,16 +16334,16 @@
         <v>61</v>
       </c>
       <c r="G559" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="H559" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I559" t="s">
         <v>66</v>
       </c>
       <c r="J559" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="560">
@@ -16339,16 +16354,16 @@
         <v>61</v>
       </c>
       <c r="G560" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="H560" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I560" t="s">
         <v>64</v>
       </c>
       <c r="J560" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="561">
@@ -16359,16 +16374,16 @@
         <v>61</v>
       </c>
       <c r="G561" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="H561" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I561" t="s">
         <v>66</v>
       </c>
       <c r="J561" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="562">
@@ -16379,16 +16394,16 @@
         <v>61</v>
       </c>
       <c r="G562" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H562" t="s">
+        <v>684</v>
+      </c>
+      <c r="I562" t="s">
+        <v>64</v>
+      </c>
+      <c r="J562" t="s">
         <v>685</v>
-      </c>
-      <c r="I562" t="s">
-        <v>64</v>
-      </c>
-      <c r="J562" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="563">
@@ -16399,16 +16414,16 @@
         <v>61</v>
       </c>
       <c r="G563" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H563" t="s">
+        <v>684</v>
+      </c>
+      <c r="I563" t="s">
+        <v>66</v>
+      </c>
+      <c r="J563" t="s">
         <v>685</v>
-      </c>
-      <c r="I563" t="s">
-        <v>66</v>
-      </c>
-      <c r="J563" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="564">
@@ -16419,16 +16434,16 @@
         <v>61</v>
       </c>
       <c r="G564" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H564" t="s">
+        <v>686</v>
+      </c>
+      <c r="I564" t="s">
+        <v>64</v>
+      </c>
+      <c r="J564" t="s">
         <v>687</v>
-      </c>
-      <c r="I564" t="s">
-        <v>64</v>
-      </c>
-      <c r="J564" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="565">
@@ -16439,16 +16454,16 @@
         <v>61</v>
       </c>
       <c r="G565" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H565" t="s">
+        <v>686</v>
+      </c>
+      <c r="I565" t="s">
+        <v>66</v>
+      </c>
+      <c r="J565" t="s">
         <v>687</v>
-      </c>
-      <c r="I565" t="s">
-        <v>66</v>
-      </c>
-      <c r="J565" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="566">
@@ -16459,16 +16474,16 @@
         <v>61</v>
       </c>
       <c r="G566" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H566" t="s">
+        <v>688</v>
+      </c>
+      <c r="I566" t="s">
+        <v>64</v>
+      </c>
+      <c r="J566" t="s">
         <v>689</v>
-      </c>
-      <c r="I566" t="s">
-        <v>64</v>
-      </c>
-      <c r="J566" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="567">
@@ -16479,16 +16494,16 @@
         <v>61</v>
       </c>
       <c r="G567" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H567" t="s">
+        <v>688</v>
+      </c>
+      <c r="I567" t="s">
+        <v>66</v>
+      </c>
+      <c r="J567" t="s">
         <v>689</v>
-      </c>
-      <c r="I567" t="s">
-        <v>66</v>
-      </c>
-      <c r="J567" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="568">
@@ -16499,16 +16514,16 @@
         <v>61</v>
       </c>
       <c r="G568" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H568" t="s">
+        <v>690</v>
+      </c>
+      <c r="I568" t="s">
+        <v>64</v>
+      </c>
+      <c r="J568" t="s">
         <v>691</v>
-      </c>
-      <c r="I568" t="s">
-        <v>64</v>
-      </c>
-      <c r="J568" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="569">
@@ -16519,16 +16534,16 @@
         <v>61</v>
       </c>
       <c r="G569" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H569" t="s">
+        <v>690</v>
+      </c>
+      <c r="I569" t="s">
+        <v>66</v>
+      </c>
+      <c r="J569" t="s">
         <v>691</v>
-      </c>
-      <c r="I569" t="s">
-        <v>66</v>
-      </c>
-      <c r="J569" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="570">
@@ -16539,16 +16554,16 @@
         <v>61</v>
       </c>
       <c r="G570" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H570" t="s">
+        <v>692</v>
+      </c>
+      <c r="I570" t="s">
+        <v>64</v>
+      </c>
+      <c r="J570" t="s">
         <v>693</v>
-      </c>
-      <c r="I570" t="s">
-        <v>64</v>
-      </c>
-      <c r="J570" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="571">
@@ -16559,16 +16574,16 @@
         <v>61</v>
       </c>
       <c r="G571" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H571" t="s">
+        <v>692</v>
+      </c>
+      <c r="I571" t="s">
+        <v>66</v>
+      </c>
+      <c r="J571" t="s">
         <v>693</v>
-      </c>
-      <c r="I571" t="s">
-        <v>66</v>
-      </c>
-      <c r="J571" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="572">
@@ -16579,16 +16594,16 @@
         <v>61</v>
       </c>
       <c r="G572" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H572" t="s">
+        <v>694</v>
+      </c>
+      <c r="I572" t="s">
+        <v>64</v>
+      </c>
+      <c r="J572" t="s">
         <v>695</v>
-      </c>
-      <c r="I572" t="s">
-        <v>64</v>
-      </c>
-      <c r="J572" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="573">
@@ -16599,16 +16614,16 @@
         <v>61</v>
       </c>
       <c r="G573" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H573" t="s">
+        <v>694</v>
+      </c>
+      <c r="I573" t="s">
+        <v>66</v>
+      </c>
+      <c r="J573" t="s">
         <v>695</v>
-      </c>
-      <c r="I573" t="s">
-        <v>66</v>
-      </c>
-      <c r="J573" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="574">
@@ -16619,16 +16634,16 @@
         <v>61</v>
       </c>
       <c r="G574" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H574" t="s">
+        <v>696</v>
+      </c>
+      <c r="I574" t="s">
+        <v>64</v>
+      </c>
+      <c r="J574" t="s">
         <v>697</v>
-      </c>
-      <c r="I574" t="s">
-        <v>64</v>
-      </c>
-      <c r="J574" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="575">
@@ -16639,16 +16654,16 @@
         <v>61</v>
       </c>
       <c r="G575" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H575" t="s">
+        <v>696</v>
+      </c>
+      <c r="I575" t="s">
+        <v>66</v>
+      </c>
+      <c r="J575" t="s">
         <v>697</v>
-      </c>
-      <c r="I575" t="s">
-        <v>66</v>
-      </c>
-      <c r="J575" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="576">
@@ -16659,16 +16674,16 @@
         <v>61</v>
       </c>
       <c r="G576" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H576" t="s">
+        <v>698</v>
+      </c>
+      <c r="I576" t="s">
+        <v>64</v>
+      </c>
+      <c r="J576" t="s">
         <v>699</v>
-      </c>
-      <c r="I576" t="s">
-        <v>64</v>
-      </c>
-      <c r="J576" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="577">
@@ -16679,16 +16694,16 @@
         <v>61</v>
       </c>
       <c r="G577" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H577" t="s">
+        <v>698</v>
+      </c>
+      <c r="I577" t="s">
+        <v>66</v>
+      </c>
+      <c r="J577" t="s">
         <v>699</v>
-      </c>
-      <c r="I577" t="s">
-        <v>66</v>
-      </c>
-      <c r="J577" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="578">
@@ -16699,16 +16714,16 @@
         <v>61</v>
       </c>
       <c r="G578" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H578" t="s">
+        <v>700</v>
+      </c>
+      <c r="I578" t="s">
+        <v>64</v>
+      </c>
+      <c r="J578" t="s">
         <v>701</v>
-      </c>
-      <c r="I578" t="s">
-        <v>64</v>
-      </c>
-      <c r="J578" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="579">
@@ -16719,16 +16734,16 @@
         <v>61</v>
       </c>
       <c r="G579" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H579" t="s">
+        <v>700</v>
+      </c>
+      <c r="I579" t="s">
+        <v>66</v>
+      </c>
+      <c r="J579" t="s">
         <v>701</v>
-      </c>
-      <c r="I579" t="s">
-        <v>66</v>
-      </c>
-      <c r="J579" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="580">
@@ -16739,16 +16754,16 @@
         <v>61</v>
       </c>
       <c r="G580" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H580" t="s">
-        <v>471</v>
+        <v>702</v>
       </c>
       <c r="I580" t="s">
         <v>64</v>
       </c>
       <c r="J580" t="s">
-        <v>311</v>
+        <v>703</v>
       </c>
     </row>
     <row r="581">
@@ -16759,16 +16774,16 @@
         <v>61</v>
       </c>
       <c r="G581" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H581" t="s">
-        <v>471</v>
+        <v>702</v>
       </c>
       <c r="I581" t="s">
         <v>66</v>
       </c>
       <c r="J581" t="s">
-        <v>311</v>
+        <v>703</v>
       </c>
     </row>
     <row r="582">
@@ -16779,16 +16794,16 @@
         <v>61</v>
       </c>
       <c r="G582" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H582" t="s">
-        <v>554</v>
+        <v>704</v>
       </c>
       <c r="I582" t="s">
         <v>64</v>
       </c>
       <c r="J582" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="583">
@@ -16799,16 +16814,16 @@
         <v>61</v>
       </c>
       <c r="G583" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H583" t="s">
-        <v>554</v>
+        <v>704</v>
       </c>
       <c r="I583" t="s">
         <v>66</v>
       </c>
       <c r="J583" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="584">
@@ -16819,16 +16834,16 @@
         <v>61</v>
       </c>
       <c r="G584" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H584" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="I584" t="s">
         <v>64</v>
       </c>
       <c r="J584" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="585">
@@ -16839,16 +16854,16 @@
         <v>61</v>
       </c>
       <c r="G585" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H585" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="I585" t="s">
         <v>66</v>
       </c>
       <c r="J585" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="586">
@@ -16859,16 +16874,16 @@
         <v>61</v>
       </c>
       <c r="G586" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H586" t="s">
-        <v>556</v>
+        <v>478</v>
       </c>
       <c r="I586" t="s">
         <v>64</v>
       </c>
       <c r="J586" t="s">
-        <v>706</v>
+        <v>280</v>
       </c>
     </row>
     <row r="587">
@@ -16879,16 +16894,16 @@
         <v>61</v>
       </c>
       <c r="G587" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H587" t="s">
-        <v>556</v>
+        <v>478</v>
       </c>
       <c r="I587" t="s">
         <v>66</v>
       </c>
       <c r="J587" t="s">
-        <v>706</v>
+        <v>280</v>
       </c>
     </row>
     <row r="588">
@@ -16899,16 +16914,16 @@
         <v>61</v>
       </c>
       <c r="G588" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="H588" t="s">
+        <v>561</v>
+      </c>
+      <c r="I588" t="s">
+        <v>64</v>
+      </c>
+      <c r="J588" t="s">
         <v>708</v>
-      </c>
-      <c r="I588" t="s">
-        <v>64</v>
-      </c>
-      <c r="J588" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="589">
@@ -16919,16 +16934,16 @@
         <v>61</v>
       </c>
       <c r="G589" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="H589" t="s">
+        <v>561</v>
+      </c>
+      <c r="I589" t="s">
+        <v>66</v>
+      </c>
+      <c r="J589" t="s">
         <v>708</v>
-      </c>
-      <c r="I589" t="s">
-        <v>66</v>
-      </c>
-      <c r="J589" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="590">
@@ -16939,16 +16954,16 @@
         <v>61</v>
       </c>
       <c r="G590" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="H590" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I590" t="s">
         <v>64</v>
       </c>
       <c r="J590" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="591">
@@ -16959,16 +16974,16 @@
         <v>61</v>
       </c>
       <c r="G591" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="H591" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I591" t="s">
         <v>66</v>
       </c>
       <c r="J591" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="592">
@@ -16979,16 +16994,16 @@
         <v>61</v>
       </c>
       <c r="G592" t="s">
+        <v>683</v>
+      </c>
+      <c r="H592" t="s">
+        <v>563</v>
+      </c>
+      <c r="I592" t="s">
+        <v>64</v>
+      </c>
+      <c r="J592" t="s">
         <v>711</v>
-      </c>
-      <c r="H592" t="s">
-        <v>715</v>
-      </c>
-      <c r="I592" t="s">
-        <v>64</v>
-      </c>
-      <c r="J592" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="593">
@@ -16999,16 +17014,16 @@
         <v>61</v>
       </c>
       <c r="G593" t="s">
+        <v>683</v>
+      </c>
+      <c r="H593" t="s">
+        <v>563</v>
+      </c>
+      <c r="I593" t="s">
+        <v>66</v>
+      </c>
+      <c r="J593" t="s">
         <v>711</v>
-      </c>
-      <c r="H593" t="s">
-        <v>715</v>
-      </c>
-      <c r="I593" t="s">
-        <v>66</v>
-      </c>
-      <c r="J593" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="594">
@@ -17019,16 +17034,16 @@
         <v>61</v>
       </c>
       <c r="G594" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H594" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I594" t="s">
         <v>64</v>
       </c>
       <c r="J594" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="595">
@@ -17039,16 +17054,16 @@
         <v>61</v>
       </c>
       <c r="G595" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H595" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I595" t="s">
         <v>66</v>
       </c>
       <c r="J595" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="596">
@@ -17059,16 +17074,16 @@
         <v>61</v>
       </c>
       <c r="G596" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H596" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I596" t="s">
         <v>64</v>
       </c>
       <c r="J596" t="s">
-        <v>140</v>
+        <v>718</v>
       </c>
     </row>
     <row r="597">
@@ -17079,16 +17094,16 @@
         <v>61</v>
       </c>
       <c r="G597" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H597" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I597" t="s">
         <v>66</v>
       </c>
       <c r="J597" t="s">
-        <v>141</v>
+        <v>719</v>
       </c>
     </row>
     <row r="598">
@@ -17099,16 +17114,16 @@
         <v>61</v>
       </c>
       <c r="G598" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H598" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I598" t="s">
         <v>64</v>
       </c>
       <c r="J598" t="s">
-        <v>321</v>
+        <v>721</v>
       </c>
     </row>
     <row r="599">
@@ -17119,16 +17134,16 @@
         <v>61</v>
       </c>
       <c r="G599" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H599" t="s">
+        <v>720</v>
+      </c>
+      <c r="I599" t="s">
+        <v>66</v>
+      </c>
+      <c r="J599" t="s">
         <v>722</v>
-      </c>
-      <c r="I599" t="s">
-        <v>66</v>
-      </c>
-      <c r="J599" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="600">
@@ -17139,7 +17154,7 @@
         <v>61</v>
       </c>
       <c r="G600" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H600" t="s">
         <v>723</v>
@@ -17148,7 +17163,7 @@
         <v>64</v>
       </c>
       <c r="J600" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
     </row>
     <row r="601">
@@ -17159,7 +17174,7 @@
         <v>61</v>
       </c>
       <c r="G601" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H601" t="s">
         <v>723</v>
@@ -17168,7 +17183,7 @@
         <v>66</v>
       </c>
       <c r="J601" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
     </row>
     <row r="602">
@@ -17179,16 +17194,16 @@
         <v>61</v>
       </c>
       <c r="G602" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H602" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="I602" t="s">
         <v>64</v>
       </c>
       <c r="J602" t="s">
-        <v>725</v>
+        <v>140</v>
       </c>
     </row>
     <row r="603">
@@ -17199,16 +17214,16 @@
         <v>61</v>
       </c>
       <c r="G603" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H603" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="I603" t="s">
         <v>66</v>
       </c>
       <c r="J603" t="s">
-        <v>726</v>
+        <v>141</v>
       </c>
     </row>
     <row r="604">
@@ -17219,7 +17234,7 @@
         <v>61</v>
       </c>
       <c r="G604" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H604" t="s">
         <v>727</v>
@@ -17228,7 +17243,7 @@
         <v>64</v>
       </c>
       <c r="J604" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="605">
@@ -17239,7 +17254,7 @@
         <v>61</v>
       </c>
       <c r="G605" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H605" t="s">
         <v>727</v>
@@ -17248,7 +17263,7 @@
         <v>66</v>
       </c>
       <c r="J605" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="606">
@@ -17259,7 +17274,7 @@
         <v>61</v>
       </c>
       <c r="G606" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H606" t="s">
         <v>728</v>
@@ -17268,7 +17283,7 @@
         <v>64</v>
       </c>
       <c r="J606" t="s">
-        <v>729</v>
+        <v>282</v>
       </c>
     </row>
     <row r="607">
@@ -17279,7 +17294,7 @@
         <v>61</v>
       </c>
       <c r="G607" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H607" t="s">
         <v>728</v>
@@ -17288,7 +17303,7 @@
         <v>66</v>
       </c>
       <c r="J607" t="s">
-        <v>730</v>
+        <v>265</v>
       </c>
     </row>
     <row r="608">
@@ -17299,16 +17314,16 @@
         <v>61</v>
       </c>
       <c r="G608" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H608" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I608" t="s">
         <v>64</v>
       </c>
       <c r="J608" t="s">
-        <v>332</v>
+        <v>730</v>
       </c>
     </row>
     <row r="609">
@@ -17319,16 +17334,16 @@
         <v>61</v>
       </c>
       <c r="G609" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H609" t="s">
+        <v>729</v>
+      </c>
+      <c r="I609" t="s">
+        <v>66</v>
+      </c>
+      <c r="J609" t="s">
         <v>731</v>
-      </c>
-      <c r="I609" t="s">
-        <v>66</v>
-      </c>
-      <c r="J609" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="610">
@@ -17339,7 +17354,7 @@
         <v>61</v>
       </c>
       <c r="G610" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H610" t="s">
         <v>732</v>
@@ -17348,7 +17363,7 @@
         <v>64</v>
       </c>
       <c r="J610" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="611">
@@ -17359,7 +17374,7 @@
         <v>61</v>
       </c>
       <c r="G611" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H611" t="s">
         <v>732</v>
@@ -17368,7 +17383,7 @@
         <v>66</v>
       </c>
       <c r="J611" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="612">
@@ -17379,7 +17394,7 @@
         <v>61</v>
       </c>
       <c r="G612" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H612" t="s">
         <v>733</v>
@@ -17388,7 +17403,7 @@
         <v>64</v>
       </c>
       <c r="J612" t="s">
-        <v>338</v>
+        <v>734</v>
       </c>
     </row>
     <row r="613">
@@ -17399,7 +17414,7 @@
         <v>61</v>
       </c>
       <c r="G613" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H613" t="s">
         <v>733</v>
@@ -17408,7 +17423,7 @@
         <v>66</v>
       </c>
       <c r="J613" t="s">
-        <v>339</v>
+        <v>735</v>
       </c>
     </row>
     <row r="614">
@@ -17419,16 +17434,16 @@
         <v>61</v>
       </c>
       <c r="G614" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H614" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="I614" t="s">
         <v>64</v>
       </c>
       <c r="J614" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="615">
@@ -17439,16 +17454,16 @@
         <v>61</v>
       </c>
       <c r="G615" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H615" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="I615" t="s">
         <v>66</v>
       </c>
       <c r="J615" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="616">
@@ -17459,16 +17474,16 @@
         <v>61</v>
       </c>
       <c r="G616" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H616" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="I616" t="s">
         <v>64</v>
       </c>
       <c r="J616" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="617">
@@ -17479,16 +17494,16 @@
         <v>61</v>
       </c>
       <c r="G617" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H617" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="I617" t="s">
         <v>66</v>
       </c>
       <c r="J617" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="618">
@@ -17499,16 +17514,16 @@
         <v>61</v>
       </c>
       <c r="G618" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H618" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="I618" t="s">
         <v>64</v>
       </c>
       <c r="J618" t="s">
-        <v>737</v>
+        <v>345</v>
       </c>
     </row>
     <row r="619">
@@ -17519,16 +17534,16 @@
         <v>61</v>
       </c>
       <c r="G619" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H619" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="I619" t="s">
         <v>66</v>
       </c>
       <c r="J619" t="s">
-        <v>9</v>
+        <v>346</v>
       </c>
     </row>
     <row r="620">
@@ -17539,16 +17554,16 @@
         <v>61</v>
       </c>
       <c r="G620" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H620" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I620" t="s">
         <v>64</v>
       </c>
       <c r="J620" t="s">
-        <v>739</v>
+        <v>348</v>
       </c>
     </row>
     <row r="621">
@@ -17559,16 +17574,16 @@
         <v>61</v>
       </c>
       <c r="G621" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H621" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I621" t="s">
         <v>66</v>
       </c>
       <c r="J621" t="s">
-        <v>740</v>
+        <v>349</v>
       </c>
     </row>
     <row r="622">
@@ -17579,16 +17594,16 @@
         <v>61</v>
       </c>
       <c r="G622" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H622" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I622" t="s">
         <v>64</v>
       </c>
       <c r="J622" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="623">
@@ -17599,16 +17614,16 @@
         <v>61</v>
       </c>
       <c r="G623" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H623" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I623" t="s">
         <v>66</v>
       </c>
       <c r="J623" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="624">
@@ -17619,16 +17634,16 @@
         <v>61</v>
       </c>
       <c r="G624" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H624" t="s">
+        <v>741</v>
+      </c>
+      <c r="I624" t="s">
+        <v>64</v>
+      </c>
+      <c r="J624" t="s">
         <v>742</v>
-      </c>
-      <c r="I624" t="s">
-        <v>64</v>
-      </c>
-      <c r="J624" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="625">
@@ -17639,16 +17654,16 @@
         <v>61</v>
       </c>
       <c r="G625" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H625" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I625" t="s">
         <v>66</v>
       </c>
       <c r="J625" t="s">
-        <v>353</v>
+        <v>9</v>
       </c>
     </row>
     <row r="626">
@@ -17659,7 +17674,7 @@
         <v>61</v>
       </c>
       <c r="G626" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H626" t="s">
         <v>743</v>
@@ -17679,7 +17694,7 @@
         <v>61</v>
       </c>
       <c r="G627" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H627" t="s">
         <v>743</v>
@@ -17699,7 +17714,7 @@
         <v>61</v>
       </c>
       <c r="G628" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H628" t="s">
         <v>746</v>
@@ -17708,7 +17723,7 @@
         <v>64</v>
       </c>
       <c r="J628" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="629">
@@ -17719,7 +17734,7 @@
         <v>61</v>
       </c>
       <c r="G629" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H629" t="s">
         <v>746</v>
@@ -17728,7 +17743,7 @@
         <v>66</v>
       </c>
       <c r="J629" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="630">
@@ -17739,16 +17754,16 @@
         <v>61</v>
       </c>
       <c r="G630" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H630" t="s">
-        <v>560</v>
+        <v>747</v>
       </c>
       <c r="I630" t="s">
         <v>64</v>
       </c>
       <c r="J630" t="s">
-        <v>561</v>
+        <v>359</v>
       </c>
     </row>
     <row r="631">
@@ -17759,16 +17774,16 @@
         <v>61</v>
       </c>
       <c r="G631" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H631" t="s">
-        <v>560</v>
+        <v>747</v>
       </c>
       <c r="I631" t="s">
         <v>66</v>
       </c>
       <c r="J631" t="s">
-        <v>562</v>
+        <v>360</v>
       </c>
     </row>
     <row r="632">
@@ -17779,16 +17794,16 @@
         <v>61</v>
       </c>
       <c r="G632" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H632" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I632" t="s">
         <v>64</v>
       </c>
       <c r="J632" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="633">
@@ -17799,16 +17814,16 @@
         <v>61</v>
       </c>
       <c r="G633" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H633" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I633" t="s">
         <v>66</v>
       </c>
       <c r="J633" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="634">
@@ -17819,16 +17834,16 @@
         <v>61</v>
       </c>
       <c r="G634" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H634" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="I634" t="s">
         <v>64</v>
       </c>
       <c r="J634" t="s">
-        <v>750</v>
+        <v>324</v>
       </c>
     </row>
     <row r="635">
@@ -17839,16 +17854,16 @@
         <v>61</v>
       </c>
       <c r="G635" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H635" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="I635" t="s">
         <v>66</v>
       </c>
       <c r="J635" t="s">
-        <v>751</v>
+        <v>325</v>
       </c>
     </row>
     <row r="636">
@@ -17859,16 +17874,16 @@
         <v>61</v>
       </c>
       <c r="G636" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H636" t="s">
-        <v>752</v>
+        <v>567</v>
       </c>
       <c r="I636" t="s">
         <v>64</v>
       </c>
       <c r="J636" t="s">
-        <v>753</v>
+        <v>568</v>
       </c>
     </row>
     <row r="637">
@@ -17879,16 +17894,16 @@
         <v>61</v>
       </c>
       <c r="G637" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H637" t="s">
-        <v>752</v>
+        <v>567</v>
       </c>
       <c r="I637" t="s">
         <v>66</v>
       </c>
       <c r="J637" t="s">
-        <v>754</v>
+        <v>569</v>
       </c>
     </row>
     <row r="638">
@@ -17899,16 +17914,16 @@
         <v>61</v>
       </c>
       <c r="G638" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H638" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I638" t="s">
         <v>64</v>
       </c>
       <c r="J638" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="639">
@@ -17919,16 +17934,16 @@
         <v>61</v>
       </c>
       <c r="G639" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H639" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I639" t="s">
         <v>66</v>
       </c>
       <c r="J639" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="640">
@@ -17939,16 +17954,16 @@
         <v>61</v>
       </c>
       <c r="G640" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H640" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I640" t="s">
         <v>64</v>
       </c>
       <c r="J640" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="641">
@@ -17959,16 +17974,16 @@
         <v>61</v>
       </c>
       <c r="G641" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H641" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I641" t="s">
         <v>66</v>
       </c>
       <c r="J641" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="642">
@@ -17979,16 +17994,16 @@
         <v>61</v>
       </c>
       <c r="G642" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H642" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="I642" t="s">
         <v>64</v>
       </c>
       <c r="J642" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="643">
@@ -17999,16 +18014,16 @@
         <v>61</v>
       </c>
       <c r="G643" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H643" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="I643" t="s">
         <v>66</v>
       </c>
       <c r="J643" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="644">
@@ -18019,16 +18034,16 @@
         <v>61</v>
       </c>
       <c r="G644" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H644" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="I644" t="s">
         <v>64</v>
       </c>
       <c r="J644" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="645">
@@ -18039,16 +18054,16 @@
         <v>61</v>
       </c>
       <c r="G645" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H645" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="I645" t="s">
         <v>66</v>
       </c>
       <c r="J645" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="646">
@@ -18059,16 +18074,16 @@
         <v>61</v>
       </c>
       <c r="G646" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H646" t="s">
-        <v>550</v>
+        <v>763</v>
       </c>
       <c r="I646" t="s">
         <v>64</v>
       </c>
       <c r="J646" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="647">
@@ -18079,16 +18094,16 @@
         <v>61</v>
       </c>
       <c r="G647" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H647" t="s">
-        <v>550</v>
+        <v>763</v>
       </c>
       <c r="I647" t="s">
         <v>66</v>
       </c>
       <c r="J647" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="648">
@@ -18099,16 +18114,16 @@
         <v>61</v>
       </c>
       <c r="G648" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H648" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I648" t="s">
         <v>64</v>
       </c>
       <c r="J648" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="649">
@@ -18119,16 +18134,16 @@
         <v>61</v>
       </c>
       <c r="G649" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H649" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I649" t="s">
         <v>66</v>
       </c>
       <c r="J649" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="650">
@@ -18139,16 +18154,16 @@
         <v>61</v>
       </c>
       <c r="G650" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H650" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="I650" t="s">
         <v>64</v>
       </c>
       <c r="J650" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="651">
@@ -18159,16 +18174,16 @@
         <v>61</v>
       </c>
       <c r="G651" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H651" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="I651" t="s">
         <v>66</v>
       </c>
       <c r="J651" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="652">
@@ -18179,16 +18194,16 @@
         <v>61</v>
       </c>
       <c r="G652" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H652" t="s">
-        <v>775</v>
+        <v>557</v>
       </c>
       <c r="I652" t="s">
         <v>64</v>
       </c>
       <c r="J652" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="653">
@@ -18199,16 +18214,16 @@
         <v>61</v>
       </c>
       <c r="G653" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H653" t="s">
-        <v>775</v>
+        <v>557</v>
       </c>
       <c r="I653" t="s">
         <v>66</v>
       </c>
       <c r="J653" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="654">
@@ -18219,16 +18234,16 @@
         <v>61</v>
       </c>
       <c r="G654" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H654" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="I654" t="s">
         <v>64</v>
       </c>
       <c r="J654" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="655">
@@ -18239,16 +18254,16 @@
         <v>61</v>
       </c>
       <c r="G655" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H655" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="I655" t="s">
         <v>66</v>
       </c>
       <c r="J655" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="656">
@@ -18259,16 +18274,16 @@
         <v>61</v>
       </c>
       <c r="G656" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H656" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I656" t="s">
         <v>64</v>
       </c>
       <c r="J656" t="s">
-        <v>729</v>
+        <v>778</v>
       </c>
     </row>
     <row r="657">
@@ -18279,16 +18294,16 @@
         <v>61</v>
       </c>
       <c r="G657" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H657" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I657" t="s">
         <v>66</v>
       </c>
       <c r="J657" t="s">
-        <v>730</v>
+        <v>779</v>
       </c>
     </row>
     <row r="658">
@@ -18299,16 +18314,16 @@
         <v>61</v>
       </c>
       <c r="G658" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H658" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I658" t="s">
         <v>64</v>
       </c>
       <c r="J658" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="659">
@@ -18319,16 +18334,16 @@
         <v>61</v>
       </c>
       <c r="G659" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H659" t="s">
+        <v>780</v>
+      </c>
+      <c r="I659" t="s">
+        <v>66</v>
+      </c>
+      <c r="J659" t="s">
         <v>782</v>
-      </c>
-      <c r="I659" t="s">
-        <v>66</v>
-      </c>
-      <c r="J659" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="660">
@@ -18339,16 +18354,16 @@
         <v>61</v>
       </c>
       <c r="G660" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H660" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I660" t="s">
         <v>64</v>
       </c>
       <c r="J660" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="661">
@@ -18359,16 +18374,16 @@
         <v>61</v>
       </c>
       <c r="G661" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H661" t="s">
+        <v>783</v>
+      </c>
+      <c r="I661" t="s">
+        <v>66</v>
+      </c>
+      <c r="J661" t="s">
         <v>785</v>
-      </c>
-      <c r="I661" t="s">
-        <v>66</v>
-      </c>
-      <c r="J661" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="662">
@@ -18379,16 +18394,16 @@
         <v>61</v>
       </c>
       <c r="G662" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H662" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I662" t="s">
         <v>64</v>
       </c>
       <c r="J662" t="s">
-        <v>789</v>
+        <v>734</v>
       </c>
     </row>
     <row r="663">
@@ -18399,16 +18414,16 @@
         <v>61</v>
       </c>
       <c r="G663" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H663" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I663" t="s">
         <v>66</v>
       </c>
       <c r="J663" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
     </row>
     <row r="664">
@@ -18419,16 +18434,16 @@
         <v>61</v>
       </c>
       <c r="G664" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H664" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I664" t="s">
         <v>64</v>
       </c>
       <c r="J664" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="665">
@@ -18439,16 +18454,16 @@
         <v>61</v>
       </c>
       <c r="G665" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H665" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I665" t="s">
         <v>66</v>
       </c>
       <c r="J665" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="666">
@@ -18459,16 +18474,16 @@
         <v>61</v>
       </c>
       <c r="G666" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H666" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="I666" t="s">
         <v>64</v>
       </c>
       <c r="J666" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="667">
@@ -18479,16 +18494,136 @@
         <v>61</v>
       </c>
       <c r="G667" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H667" t="s">
+        <v>790</v>
+      </c>
+      <c r="I667" t="s">
+        <v>66</v>
+      </c>
+      <c r="J667" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="E668" t="s">
+        <v>60</v>
+      </c>
+      <c r="F668" t="s">
+        <v>61</v>
+      </c>
+      <c r="G668" t="s">
+        <v>716</v>
+      </c>
+      <c r="H668" t="s">
+        <v>793</v>
+      </c>
+      <c r="I668" t="s">
+        <v>64</v>
+      </c>
+      <c r="J668" t="s">
         <v>794</v>
       </c>
-      <c r="I667" t="s">
-        <v>66</v>
-      </c>
-      <c r="J667" t="s">
+    </row>
+    <row r="669">
+      <c r="E669" t="s">
+        <v>60</v>
+      </c>
+      <c r="F669" t="s">
+        <v>61</v>
+      </c>
+      <c r="G669" t="s">
+        <v>716</v>
+      </c>
+      <c r="H669" t="s">
+        <v>793</v>
+      </c>
+      <c r="I669" t="s">
+        <v>66</v>
+      </c>
+      <c r="J669" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="E670" t="s">
+        <v>60</v>
+      </c>
+      <c r="F670" t="s">
+        <v>61</v>
+      </c>
+      <c r="G670" t="s">
+        <v>716</v>
+      </c>
+      <c r="H670" t="s">
         <v>796</v>
+      </c>
+      <c r="I670" t="s">
+        <v>64</v>
+      </c>
+      <c r="J670" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="E671" t="s">
+        <v>60</v>
+      </c>
+      <c r="F671" t="s">
+        <v>61</v>
+      </c>
+      <c r="G671" t="s">
+        <v>716</v>
+      </c>
+      <c r="H671" t="s">
+        <v>796</v>
+      </c>
+      <c r="I671" t="s">
+        <v>66</v>
+      </c>
+      <c r="J671" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="E672" t="s">
+        <v>60</v>
+      </c>
+      <c r="F672" t="s">
+        <v>61</v>
+      </c>
+      <c r="G672" t="s">
+        <v>716</v>
+      </c>
+      <c r="H672" t="s">
+        <v>799</v>
+      </c>
+      <c r="I672" t="s">
+        <v>64</v>
+      </c>
+      <c r="J672" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="E673" t="s">
+        <v>60</v>
+      </c>
+      <c r="F673" t="s">
+        <v>61</v>
+      </c>
+      <c r="G673" t="s">
+        <v>716</v>
+      </c>
+      <c r="H673" t="s">
+        <v>799</v>
+      </c>
+      <c r="I673" t="s">
+        <v>66</v>
+      </c>
+      <c r="J673" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
